--- a/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.78418630620344</v>
+        <v>24.78418630620346</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.486597969955365</v>
+        <v>7.486597969955366</v>
       </c>
       <c r="E2">
-        <v>15.2562070163662</v>
+        <v>15.25620701636628</v>
       </c>
       <c r="F2">
-        <v>48.77214919876477</v>
+        <v>48.77214919876479</v>
       </c>
       <c r="G2">
-        <v>39.64509048721806</v>
+        <v>39.6450904872181</v>
       </c>
       <c r="H2">
-        <v>20.50357546146591</v>
+        <v>20.50357546146594</v>
       </c>
       <c r="I2">
-        <v>8.691159889838703</v>
+        <v>8.691159889838801</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>52.32302151769096</v>
+        <v>52.32302151769097</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.0713441484909</v>
+        <v>23.07134414849096</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.898207053561081</v>
+        <v>6.898207053561195</v>
       </c>
       <c r="E3">
-        <v>14.37680210602404</v>
+        <v>14.37680210602413</v>
       </c>
       <c r="F3">
-        <v>44.69624874103248</v>
+        <v>44.69624874103275</v>
       </c>
       <c r="G3">
-        <v>36.29856689329282</v>
+        <v>36.29856689329308</v>
       </c>
       <c r="H3">
-        <v>19.56989337981656</v>
+        <v>19.56989337981654</v>
       </c>
       <c r="I3">
-        <v>8.36604481310961</v>
+        <v>8.366044813109669</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>48.55779856001796</v>
+        <v>48.55779856001811</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.96484887610303</v>
+        <v>21.96484887610307</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.529662663141742</v>
+        <v>6.529662663141734</v>
       </c>
       <c r="E4">
-        <v>13.81320110612643</v>
+        <v>13.81320110612645</v>
       </c>
       <c r="F4">
-        <v>42.16395935580838</v>
+        <v>42.16395935580843</v>
       </c>
       <c r="G4">
-        <v>34.21322970169444</v>
+        <v>34.21322970169449</v>
       </c>
       <c r="H4">
         <v>19.01745246374318</v>
       </c>
       <c r="I4">
-        <v>8.162445662351967</v>
+        <v>8.162445662351981</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>46.14339887600239</v>
+        <v>46.14339887600244</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,28 +532,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.377277683937104</v>
+        <v>6.377277683937063</v>
       </c>
       <c r="E5">
-        <v>13.57760333438256</v>
+        <v>13.57760333438255</v>
       </c>
       <c r="F5">
-        <v>41.1225317198474</v>
+        <v>41.12253171984752</v>
       </c>
       <c r="G5">
-        <v>33.35395881498319</v>
+        <v>33.35395881498327</v>
       </c>
       <c r="H5">
         <v>18.79744701452161</v>
       </c>
       <c r="I5">
-        <v>8.078598188648742</v>
+        <v>8.078598188648744</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>45.13252392007405</v>
+        <v>45.13252392007416</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.42178727918283</v>
+        <v>21.42178727918282</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.351831799292995</v>
+        <v>6.351831799293002</v>
       </c>
       <c r="E6">
-        <v>13.53812629501</v>
+        <v>13.53812629501001</v>
       </c>
       <c r="F6">
-        <v>40.94898062031201</v>
+        <v>40.94898062031187</v>
       </c>
       <c r="G6">
-        <v>33.21066051943136</v>
+        <v>33.21066051943126</v>
       </c>
       <c r="H6">
-        <v>18.76122218499654</v>
+        <v>18.7612221849966</v>
       </c>
       <c r="I6">
-        <v>8.064626114330018</v>
+        <v>8.064626114329982</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>44.96300723129545</v>
+        <v>44.96300723129544</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.95863524856943</v>
+        <v>21.95863524856937</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.527616896362573</v>
+        <v>6.527616896362533</v>
       </c>
       <c r="E7">
-        <v>13.81004767732348</v>
+        <v>13.81004767732344</v>
       </c>
       <c r="F7">
-        <v>42.14995505230299</v>
+        <v>42.14995505230311</v>
       </c>
       <c r="G7">
-        <v>34.20168172057893</v>
+        <v>34.20168172057903</v>
       </c>
       <c r="H7">
-        <v>19.01446477773974</v>
+        <v>19.01446477773971</v>
       </c>
       <c r="I7">
-        <v>8.161318254596342</v>
+        <v>8.161318254596289</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>46.12987659040733</v>
+        <v>46.12987659040741</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.20477623977172</v>
+        <v>24.20477623977176</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.284982168933417</v>
+        <v>7.284982168933329</v>
       </c>
       <c r="E8">
-        <v>14.957888056095</v>
+        <v>14.95788805609503</v>
       </c>
       <c r="F8">
-        <v>47.37152521318671</v>
+        <v>47.37152521318654</v>
       </c>
       <c r="G8">
-        <v>38.4963294425929</v>
+        <v>38.49632944259274</v>
       </c>
       <c r="H8">
-        <v>20.17721641045565</v>
+        <v>20.1772164104558</v>
       </c>
       <c r="I8">
-        <v>8.57995336789504</v>
+        <v>8.579953367895108</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>51.04526535752228</v>
+        <v>51.0452653575223</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.19101654457092</v>
+        <v>28.19101654457097</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.734169219755303</v>
+        <v>8.734169219755369</v>
       </c>
       <c r="E9">
-        <v>17.02389828243863</v>
+        <v>17.02389828243867</v>
       </c>
       <c r="F9">
-        <v>57.50427704271021</v>
+        <v>57.50427704271046</v>
       </c>
       <c r="G9">
-        <v>46.78511520265992</v>
+        <v>46.78511520266009</v>
       </c>
       <c r="H9">
-        <v>22.63380958342111</v>
+        <v>22.63380958342113</v>
       </c>
       <c r="I9">
-        <v>9.364862902269969</v>
+        <v>9.364862902269994</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>59.93846400757337</v>
+        <v>59.9384640075735</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.89359520192604</v>
+        <v>30.89359520192596</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.818845468755203</v>
+        <v>9.818845468755159</v>
       </c>
       <c r="E10">
-        <v>18.43959979101925</v>
+        <v>18.4395997910192</v>
       </c>
       <c r="F10">
-        <v>65.14331208216078</v>
+        <v>65.14331208216042</v>
       </c>
       <c r="G10">
-        <v>53.01008145193733</v>
+        <v>53.01008145193705</v>
       </c>
       <c r="H10">
-        <v>25.12397175486722</v>
+        <v>25.12397175486712</v>
       </c>
       <c r="I10">
-        <v>9.955451300371106</v>
+        <v>9.955451300371086</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>66.14421293919386</v>
+        <v>66.14421293919366</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.08322983458249</v>
+        <v>32.08322983458248</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.33152431547158</v>
+        <v>10.33152431547165</v>
       </c>
       <c r="E11">
-        <v>19.06663361913916</v>
+        <v>19.06663361913926</v>
       </c>
       <c r="F11">
-        <v>68.75479510808654</v>
+        <v>68.75479510808653</v>
       </c>
       <c r="G11">
-        <v>55.94870188347927</v>
+        <v>55.94870188347928</v>
       </c>
       <c r="H11">
-        <v>26.27560074422942</v>
+        <v>26.27560074422938</v>
       </c>
       <c r="I11">
         <v>10.28900006809407</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>68.93961925554365</v>
+        <v>68.93961925554363</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.52912618746414</v>
+        <v>32.52912618746417</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.53040431493653</v>
+        <v>10.53040431493649</v>
       </c>
       <c r="E12">
         <v>19.30241290486419</v>
       </c>
       <c r="F12">
-        <v>70.1544302027807</v>
+        <v>70.1544302027808</v>
       </c>
       <c r="G12">
-        <v>57.08703548162366</v>
+        <v>57.08703548162373</v>
       </c>
       <c r="H12">
-        <v>26.71594553546053</v>
+        <v>26.7159455354605</v>
       </c>
       <c r="I12">
-        <v>10.41191602086653</v>
+        <v>10.41191602086652</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>69.99982518039086</v>
+        <v>69.99982518039089</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.43327576039022</v>
+        <v>32.43327576039021</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,25 +839,25 @@
         <v>10.4873196302665</v>
       </c>
       <c r="E13">
-        <v>19.25169048591463</v>
+        <v>19.25169048591467</v>
       </c>
       <c r="F13">
-        <v>69.85130789227892</v>
+        <v>69.85130789227915</v>
       </c>
       <c r="G13">
-        <v>56.84052570272126</v>
+        <v>56.84052570272138</v>
       </c>
       <c r="H13">
-        <v>26.62087979097049</v>
+        <v>26.6208797909703</v>
       </c>
       <c r="I13">
-        <v>10.38559695697959</v>
+        <v>10.38559695697955</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>69.77130047934929</v>
+        <v>69.77130047934932</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.1199979604382</v>
+        <v>32.11999796043823</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.34777671786863</v>
+        <v>10.3477767178687</v>
       </c>
       <c r="E14">
-        <v>19.08605867833653</v>
+        <v>19.08605867833651</v>
       </c>
       <c r="F14">
-        <v>68.86921010265642</v>
+        <v>68.86921010265648</v>
       </c>
       <c r="G14">
-        <v>56.04176641570024</v>
+        <v>56.04176641570029</v>
       </c>
       <c r="H14">
-        <v>26.31172872310484</v>
+        <v>26.31172872310498</v>
       </c>
       <c r="I14">
-        <v>10.29918119489486</v>
+        <v>10.29918119489489</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>69.02676884992397</v>
+        <v>69.026768849924</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.92754921207752</v>
+        <v>31.92754921207754</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.26299378099219</v>
+        <v>10.26299378099221</v>
       </c>
       <c r="E15">
-        <v>18.98441793828297</v>
+        <v>18.98441793828292</v>
       </c>
       <c r="F15">
-        <v>68.2722842542247</v>
+        <v>68.27228425422452</v>
       </c>
       <c r="G15">
-        <v>55.55620950366746</v>
+        <v>55.55620950366735</v>
       </c>
       <c r="H15">
-        <v>26.12299061859772</v>
+        <v>26.12299061859774</v>
       </c>
       <c r="I15">
-        <v>10.24580340031921</v>
+        <v>10.24580340031924</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>68.57114494920435</v>
+        <v>68.57114494920437</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.81513634637545</v>
+        <v>30.81513634637534</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.785877597532183</v>
+        <v>9.785877597532195</v>
       </c>
       <c r="E16">
-        <v>18.39833741887908</v>
+        <v>18.39833741887914</v>
       </c>
       <c r="F16">
-        <v>64.91098258100197</v>
+        <v>64.91098258100186</v>
       </c>
       <c r="G16">
-        <v>52.82095930989175</v>
+        <v>52.82095930989167</v>
       </c>
       <c r="H16">
-        <v>25.04917972988983</v>
+        <v>25.04917972988966</v>
       </c>
       <c r="I16">
-        <v>9.933185109038547</v>
+        <v>9.933185109038536</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>65.96139891853302</v>
+        <v>65.96139891853289</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.12319838182839</v>
+        <v>30.12319838182831</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.499268089064683</v>
+        <v>9.499268089064653</v>
       </c>
       <c r="E17">
-        <v>18.03488328963884</v>
+        <v>18.03488328963881</v>
       </c>
       <c r="F17">
-        <v>62.8911757515443</v>
+        <v>62.89117575154409</v>
       </c>
       <c r="G17">
-        <v>51.17632127099719</v>
+        <v>51.17632127099699</v>
       </c>
       <c r="H17">
-        <v>24.39566385122383</v>
+        <v>24.39566385122367</v>
       </c>
       <c r="I17">
-        <v>9.75730310045803</v>
+        <v>9.757303100458014</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>64.35664784241089</v>
+        <v>64.35664784241075</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.72138383921037</v>
+        <v>29.72138383921045</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.336075946100392</v>
+        <v>9.336075946100385</v>
       </c>
       <c r="E18">
-        <v>17.82417273039342</v>
+        <v>17.8241727303934</v>
       </c>
       <c r="F18">
-        <v>61.74130779899004</v>
+        <v>61.74130779899003</v>
       </c>
       <c r="G18">
         <v>50.23963178335921</v>
       </c>
       <c r="H18">
-        <v>24.02112285354973</v>
+        <v>24.02112285354987</v>
       </c>
       <c r="I18">
-        <v>9.675305668207432</v>
+        <v>9.675305668207415</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>63.43060173266284</v>
+        <v>63.43060173266289</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1064,28 +1064,28 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.281059552088976</v>
+        <v>9.281059552088733</v>
       </c>
       <c r="E19">
-        <v>17.75252687056748</v>
+        <v>17.75252687056735</v>
       </c>
       <c r="F19">
-        <v>61.35372323830749</v>
+        <v>61.35372323830723</v>
       </c>
       <c r="G19">
-        <v>49.92383131819992</v>
+        <v>49.92383131819963</v>
       </c>
       <c r="H19">
-        <v>23.89449320356444</v>
+        <v>23.89449320356447</v>
       </c>
       <c r="I19">
-        <v>9.647441194134764</v>
+        <v>9.647441194134737</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>63.11640132524491</v>
+        <v>63.11640132524477</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.1972458942979</v>
+        <v>30.19724589429799</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.529594929323235</v>
+        <v>9.529594929323279</v>
       </c>
       <c r="E20">
-        <v>18.07374117430352</v>
+        <v>18.07374117430365</v>
       </c>
       <c r="F20">
-        <v>63.10488545859395</v>
+        <v>63.10488545859452</v>
       </c>
       <c r="G20">
-        <v>51.35037684674148</v>
+        <v>51.35037684674193</v>
       </c>
       <c r="H20">
-        <v>24.46508094780652</v>
+        <v>24.4650809478065</v>
       </c>
       <c r="I20">
-        <v>9.772430536387615</v>
+        <v>9.772430536387686</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>64.52775708123572</v>
+        <v>64.52775708123593</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.21212864224114</v>
+        <v>32.21212864224119</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.38861491868168</v>
+        <v>10.38861491868167</v>
       </c>
       <c r="E21">
-        <v>19.13474557151634</v>
+        <v>19.13474557151628</v>
       </c>
       <c r="F21">
-        <v>69.15667883602032</v>
+        <v>69.1566788360203</v>
       </c>
       <c r="G21">
         <v>56.27558383776879</v>
       </c>
       <c r="H21">
-        <v>26.40239866884929</v>
+        <v>26.40239866884947</v>
       </c>
       <c r="I21">
-        <v>10.32465673825594</v>
+        <v>10.32465673825598</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>69.24535382074581</v>
+        <v>69.24535382074588</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.97936882583399</v>
+        <v>10.97936882583391</v>
       </c>
       <c r="E22">
-        <v>19.81920860766809</v>
+        <v>19.8192086076681</v>
       </c>
       <c r="F22">
-        <v>73.3093225495207</v>
+        <v>73.30932254952074</v>
       </c>
       <c r="G22">
-        <v>59.65209059027535</v>
+        <v>59.65209059027538</v>
       </c>
       <c r="H22">
-        <v>27.69494672906623</v>
+        <v>27.69494672906627</v>
       </c>
       <c r="I22">
-        <v>10.67594730435113</v>
+        <v>10.67594730435112</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>72.34294399567733</v>
+        <v>72.34294399567736</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.81594997836257</v>
+        <v>32.81594997836256</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.66046347146969</v>
+        <v>10.66046347146971</v>
       </c>
       <c r="E23">
-        <v>19.45433116356049</v>
+        <v>19.45433116356046</v>
       </c>
       <c r="F23">
-        <v>71.06911659177418</v>
+        <v>71.06911659177413</v>
       </c>
       <c r="G23">
-        <v>57.83082295304535</v>
+        <v>57.83082295304531</v>
       </c>
       <c r="H23">
-        <v>27.00177359503054</v>
+        <v>27.0017735950306</v>
       </c>
       <c r="I23">
-        <v>10.49032530666667</v>
+        <v>10.49032530666668</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>70.68578425121125</v>
+        <v>70.68578425121129</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.16378158306041</v>
+        <v>30.16378158306031</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.515879367248262</v>
+        <v>9.515879367248402</v>
       </c>
       <c r="E24">
-        <v>18.0561790458342</v>
+        <v>18.05617904583418</v>
       </c>
       <c r="F24">
-        <v>63.00823281045184</v>
+        <v>63.00823281045152</v>
       </c>
       <c r="G24">
-        <v>51.27165949921738</v>
+        <v>51.27165949921719</v>
       </c>
       <c r="H24">
         <v>24.43369395671122</v>
       </c>
       <c r="I24">
-        <v>9.765593392275045</v>
+        <v>9.765593392275031</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>64.45040973616636</v>
+        <v>64.45040973616626</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.15483831902055</v>
+        <v>27.1548383190205</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.342416400211595</v>
+        <v>8.342416400211592</v>
       </c>
       <c r="E25">
-        <v>16.48409289961298</v>
+        <v>16.48409289961301</v>
       </c>
       <c r="F25">
-        <v>54.75280569142355</v>
+        <v>54.75280569142347</v>
       </c>
       <c r="G25">
-        <v>44.53876215494545</v>
+        <v>44.5387621549454</v>
       </c>
       <c r="H25">
-        <v>21.94822804595484</v>
+        <v>21.94822804595491</v>
       </c>
       <c r="I25">
-        <v>9.156937124008024</v>
+        <v>9.156937124008046</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>57.60150972631498</v>
+        <v>57.60150972631502</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.78418630620346</v>
+        <v>24.78418630620344</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.486597969955366</v>
+        <v>7.486597969955365</v>
       </c>
       <c r="E2">
-        <v>15.25620701636628</v>
+        <v>15.2562070163662</v>
       </c>
       <c r="F2">
-        <v>48.77214919876479</v>
+        <v>48.77214919876477</v>
       </c>
       <c r="G2">
-        <v>39.6450904872181</v>
+        <v>39.64509048721806</v>
       </c>
       <c r="H2">
-        <v>20.50357546146594</v>
+        <v>20.50357546146591</v>
       </c>
       <c r="I2">
-        <v>8.691159889838801</v>
+        <v>8.691159889838703</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>52.32302151769097</v>
+        <v>52.32302151769096</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.07134414849096</v>
+        <v>23.0713441484909</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.898207053561195</v>
+        <v>6.898207053561081</v>
       </c>
       <c r="E3">
-        <v>14.37680210602413</v>
+        <v>14.37680210602404</v>
       </c>
       <c r="F3">
-        <v>44.69624874103275</v>
+        <v>44.69624874103248</v>
       </c>
       <c r="G3">
-        <v>36.29856689329308</v>
+        <v>36.29856689329282</v>
       </c>
       <c r="H3">
-        <v>19.56989337981654</v>
+        <v>19.56989337981656</v>
       </c>
       <c r="I3">
-        <v>8.366044813109669</v>
+        <v>8.36604481310961</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>48.55779856001811</v>
+        <v>48.55779856001796</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.96484887610307</v>
+        <v>21.96484887610303</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.529662663141734</v>
+        <v>6.529662663141742</v>
       </c>
       <c r="E4">
-        <v>13.81320110612645</v>
+        <v>13.81320110612643</v>
       </c>
       <c r="F4">
-        <v>42.16395935580843</v>
+        <v>42.16395935580838</v>
       </c>
       <c r="G4">
-        <v>34.21322970169449</v>
+        <v>34.21322970169444</v>
       </c>
       <c r="H4">
         <v>19.01745246374318</v>
       </c>
       <c r="I4">
-        <v>8.162445662351981</v>
+        <v>8.162445662351967</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>46.14339887600244</v>
+        <v>46.14339887600239</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,28 +532,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.377277683937063</v>
+        <v>6.377277683937104</v>
       </c>
       <c r="E5">
-        <v>13.57760333438255</v>
+        <v>13.57760333438256</v>
       </c>
       <c r="F5">
-        <v>41.12253171984752</v>
+        <v>41.1225317198474</v>
       </c>
       <c r="G5">
-        <v>33.35395881498327</v>
+        <v>33.35395881498319</v>
       </c>
       <c r="H5">
         <v>18.79744701452161</v>
       </c>
       <c r="I5">
-        <v>8.078598188648744</v>
+        <v>8.078598188648742</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>45.13252392007416</v>
+        <v>45.13252392007405</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.42178727918282</v>
+        <v>21.42178727918283</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.351831799293002</v>
+        <v>6.351831799292995</v>
       </c>
       <c r="E6">
-        <v>13.53812629501001</v>
+        <v>13.53812629501</v>
       </c>
       <c r="F6">
-        <v>40.94898062031187</v>
+        <v>40.94898062031201</v>
       </c>
       <c r="G6">
-        <v>33.21066051943126</v>
+        <v>33.21066051943136</v>
       </c>
       <c r="H6">
-        <v>18.7612221849966</v>
+        <v>18.76122218499654</v>
       </c>
       <c r="I6">
-        <v>8.064626114329982</v>
+        <v>8.064626114330018</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>44.96300723129544</v>
+        <v>44.96300723129545</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.95863524856937</v>
+        <v>21.95863524856943</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.527616896362533</v>
+        <v>6.527616896362573</v>
       </c>
       <c r="E7">
-        <v>13.81004767732344</v>
+        <v>13.81004767732348</v>
       </c>
       <c r="F7">
-        <v>42.14995505230311</v>
+        <v>42.14995505230299</v>
       </c>
       <c r="G7">
-        <v>34.20168172057903</v>
+        <v>34.20168172057893</v>
       </c>
       <c r="H7">
-        <v>19.01446477773971</v>
+        <v>19.01446477773974</v>
       </c>
       <c r="I7">
-        <v>8.161318254596289</v>
+        <v>8.161318254596342</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>46.12987659040741</v>
+        <v>46.12987659040733</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.20477623977176</v>
+        <v>24.20477623977172</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.284982168933329</v>
+        <v>7.284982168933417</v>
       </c>
       <c r="E8">
-        <v>14.95788805609503</v>
+        <v>14.957888056095</v>
       </c>
       <c r="F8">
-        <v>47.37152521318654</v>
+        <v>47.37152521318671</v>
       </c>
       <c r="G8">
-        <v>38.49632944259274</v>
+        <v>38.4963294425929</v>
       </c>
       <c r="H8">
-        <v>20.1772164104558</v>
+        <v>20.17721641045565</v>
       </c>
       <c r="I8">
-        <v>8.579953367895108</v>
+        <v>8.57995336789504</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>51.0452653575223</v>
+        <v>51.04526535752228</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.19101654457097</v>
+        <v>28.19101654457092</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.734169219755369</v>
+        <v>8.734169219755303</v>
       </c>
       <c r="E9">
-        <v>17.02389828243867</v>
+        <v>17.02389828243863</v>
       </c>
       <c r="F9">
-        <v>57.50427704271046</v>
+        <v>57.50427704271021</v>
       </c>
       <c r="G9">
-        <v>46.78511520266009</v>
+        <v>46.78511520265992</v>
       </c>
       <c r="H9">
-        <v>22.63380958342113</v>
+        <v>22.63380958342111</v>
       </c>
       <c r="I9">
-        <v>9.364862902269994</v>
+        <v>9.364862902269969</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>59.9384640075735</v>
+        <v>59.93846400757337</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.89359520192596</v>
+        <v>30.89359520192604</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.818845468755159</v>
+        <v>9.818845468755203</v>
       </c>
       <c r="E10">
-        <v>18.4395997910192</v>
+        <v>18.43959979101925</v>
       </c>
       <c r="F10">
-        <v>65.14331208216042</v>
+        <v>65.14331208216078</v>
       </c>
       <c r="G10">
-        <v>53.01008145193705</v>
+        <v>53.01008145193733</v>
       </c>
       <c r="H10">
-        <v>25.12397175486712</v>
+        <v>25.12397175486722</v>
       </c>
       <c r="I10">
-        <v>9.955451300371086</v>
+        <v>9.955451300371106</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>66.14421293919366</v>
+        <v>66.14421293919386</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.08322983458248</v>
+        <v>32.08322983458249</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.33152431547165</v>
+        <v>10.33152431547158</v>
       </c>
       <c r="E11">
-        <v>19.06663361913926</v>
+        <v>19.06663361913916</v>
       </c>
       <c r="F11">
-        <v>68.75479510808653</v>
+        <v>68.75479510808654</v>
       </c>
       <c r="G11">
-        <v>55.94870188347928</v>
+        <v>55.94870188347927</v>
       </c>
       <c r="H11">
-        <v>26.27560074422938</v>
+        <v>26.27560074422942</v>
       </c>
       <c r="I11">
         <v>10.28900006809407</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>68.93961925554363</v>
+        <v>68.93961925554365</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.52912618746417</v>
+        <v>32.52912618746414</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.53040431493649</v>
+        <v>10.53040431493653</v>
       </c>
       <c r="E12">
         <v>19.30241290486419</v>
       </c>
       <c r="F12">
-        <v>70.1544302027808</v>
+        <v>70.1544302027807</v>
       </c>
       <c r="G12">
-        <v>57.08703548162373</v>
+        <v>57.08703548162366</v>
       </c>
       <c r="H12">
-        <v>26.7159455354605</v>
+        <v>26.71594553546053</v>
       </c>
       <c r="I12">
-        <v>10.41191602086652</v>
+        <v>10.41191602086653</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>69.99982518039089</v>
+        <v>69.99982518039086</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.43327576039021</v>
+        <v>32.43327576039022</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,25 +839,25 @@
         <v>10.4873196302665</v>
       </c>
       <c r="E13">
-        <v>19.25169048591467</v>
+        <v>19.25169048591463</v>
       </c>
       <c r="F13">
-        <v>69.85130789227915</v>
+        <v>69.85130789227892</v>
       </c>
       <c r="G13">
-        <v>56.84052570272138</v>
+        <v>56.84052570272126</v>
       </c>
       <c r="H13">
-        <v>26.6208797909703</v>
+        <v>26.62087979097049</v>
       </c>
       <c r="I13">
-        <v>10.38559695697955</v>
+        <v>10.38559695697959</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>69.77130047934932</v>
+        <v>69.77130047934929</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.11999796043823</v>
+        <v>32.1199979604382</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.3477767178687</v>
+        <v>10.34777671786863</v>
       </c>
       <c r="E14">
-        <v>19.08605867833651</v>
+        <v>19.08605867833653</v>
       </c>
       <c r="F14">
-        <v>68.86921010265648</v>
+        <v>68.86921010265642</v>
       </c>
       <c r="G14">
-        <v>56.04176641570029</v>
+        <v>56.04176641570024</v>
       </c>
       <c r="H14">
-        <v>26.31172872310498</v>
+        <v>26.31172872310484</v>
       </c>
       <c r="I14">
-        <v>10.29918119489489</v>
+        <v>10.29918119489486</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>69.026768849924</v>
+        <v>69.02676884992397</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.92754921207754</v>
+        <v>31.92754921207752</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.26299378099221</v>
+        <v>10.26299378099219</v>
       </c>
       <c r="E15">
-        <v>18.98441793828292</v>
+        <v>18.98441793828297</v>
       </c>
       <c r="F15">
-        <v>68.27228425422452</v>
+        <v>68.2722842542247</v>
       </c>
       <c r="G15">
-        <v>55.55620950366735</v>
+        <v>55.55620950366746</v>
       </c>
       <c r="H15">
-        <v>26.12299061859774</v>
+        <v>26.12299061859772</v>
       </c>
       <c r="I15">
-        <v>10.24580340031924</v>
+        <v>10.24580340031921</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>68.57114494920437</v>
+        <v>68.57114494920435</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.81513634637534</v>
+        <v>30.81513634637545</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.785877597532195</v>
+        <v>9.785877597532183</v>
       </c>
       <c r="E16">
-        <v>18.39833741887914</v>
+        <v>18.39833741887908</v>
       </c>
       <c r="F16">
-        <v>64.91098258100186</v>
+        <v>64.91098258100197</v>
       </c>
       <c r="G16">
-        <v>52.82095930989167</v>
+        <v>52.82095930989175</v>
       </c>
       <c r="H16">
-        <v>25.04917972988966</v>
+        <v>25.04917972988983</v>
       </c>
       <c r="I16">
-        <v>9.933185109038536</v>
+        <v>9.933185109038547</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>65.96139891853289</v>
+        <v>65.96139891853302</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.12319838182831</v>
+        <v>30.12319838182839</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.499268089064653</v>
+        <v>9.499268089064683</v>
       </c>
       <c r="E17">
-        <v>18.03488328963881</v>
+        <v>18.03488328963884</v>
       </c>
       <c r="F17">
-        <v>62.89117575154409</v>
+        <v>62.8911757515443</v>
       </c>
       <c r="G17">
-        <v>51.17632127099699</v>
+        <v>51.17632127099719</v>
       </c>
       <c r="H17">
-        <v>24.39566385122367</v>
+        <v>24.39566385122383</v>
       </c>
       <c r="I17">
-        <v>9.757303100458014</v>
+        <v>9.75730310045803</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>64.35664784241075</v>
+        <v>64.35664784241089</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.72138383921045</v>
+        <v>29.72138383921037</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.336075946100385</v>
+        <v>9.336075946100392</v>
       </c>
       <c r="E18">
-        <v>17.8241727303934</v>
+        <v>17.82417273039342</v>
       </c>
       <c r="F18">
-        <v>61.74130779899003</v>
+        <v>61.74130779899004</v>
       </c>
       <c r="G18">
         <v>50.23963178335921</v>
       </c>
       <c r="H18">
-        <v>24.02112285354987</v>
+        <v>24.02112285354973</v>
       </c>
       <c r="I18">
-        <v>9.675305668207415</v>
+        <v>9.675305668207432</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>63.43060173266289</v>
+        <v>63.43060173266284</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1064,28 +1064,28 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.281059552088733</v>
+        <v>9.281059552088976</v>
       </c>
       <c r="E19">
-        <v>17.75252687056735</v>
+        <v>17.75252687056748</v>
       </c>
       <c r="F19">
-        <v>61.35372323830723</v>
+        <v>61.35372323830749</v>
       </c>
       <c r="G19">
-        <v>49.92383131819963</v>
+        <v>49.92383131819992</v>
       </c>
       <c r="H19">
-        <v>23.89449320356447</v>
+        <v>23.89449320356444</v>
       </c>
       <c r="I19">
-        <v>9.647441194134737</v>
+        <v>9.647441194134764</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>63.11640132524477</v>
+        <v>63.11640132524491</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.19724589429799</v>
+        <v>30.1972458942979</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.529594929323279</v>
+        <v>9.529594929323235</v>
       </c>
       <c r="E20">
-        <v>18.07374117430365</v>
+        <v>18.07374117430352</v>
       </c>
       <c r="F20">
-        <v>63.10488545859452</v>
+        <v>63.10488545859395</v>
       </c>
       <c r="G20">
-        <v>51.35037684674193</v>
+        <v>51.35037684674148</v>
       </c>
       <c r="H20">
-        <v>24.4650809478065</v>
+        <v>24.46508094780652</v>
       </c>
       <c r="I20">
-        <v>9.772430536387686</v>
+        <v>9.772430536387615</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>64.52775708123593</v>
+        <v>64.52775708123572</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.21212864224119</v>
+        <v>32.21212864224114</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.38861491868167</v>
+        <v>10.38861491868168</v>
       </c>
       <c r="E21">
-        <v>19.13474557151628</v>
+        <v>19.13474557151634</v>
       </c>
       <c r="F21">
-        <v>69.1566788360203</v>
+        <v>69.15667883602032</v>
       </c>
       <c r="G21">
         <v>56.27558383776879</v>
       </c>
       <c r="H21">
-        <v>26.40239866884947</v>
+        <v>26.40239866884929</v>
       </c>
       <c r="I21">
-        <v>10.32465673825598</v>
+        <v>10.32465673825594</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>69.24535382074588</v>
+        <v>69.24535382074581</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.97936882583391</v>
+        <v>10.97936882583399</v>
       </c>
       <c r="E22">
-        <v>19.8192086076681</v>
+        <v>19.81920860766809</v>
       </c>
       <c r="F22">
-        <v>73.30932254952074</v>
+        <v>73.3093225495207</v>
       </c>
       <c r="G22">
-        <v>59.65209059027538</v>
+        <v>59.65209059027535</v>
       </c>
       <c r="H22">
-        <v>27.69494672906627</v>
+        <v>27.69494672906623</v>
       </c>
       <c r="I22">
-        <v>10.67594730435112</v>
+        <v>10.67594730435113</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>72.34294399567736</v>
+        <v>72.34294399567733</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.81594997836256</v>
+        <v>32.81594997836257</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.66046347146971</v>
+        <v>10.66046347146969</v>
       </c>
       <c r="E23">
-        <v>19.45433116356046</v>
+        <v>19.45433116356049</v>
       </c>
       <c r="F23">
-        <v>71.06911659177413</v>
+        <v>71.06911659177418</v>
       </c>
       <c r="G23">
-        <v>57.83082295304531</v>
+        <v>57.83082295304535</v>
       </c>
       <c r="H23">
-        <v>27.0017735950306</v>
+        <v>27.00177359503054</v>
       </c>
       <c r="I23">
-        <v>10.49032530666668</v>
+        <v>10.49032530666667</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>70.68578425121129</v>
+        <v>70.68578425121125</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.16378158306031</v>
+        <v>30.16378158306041</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.515879367248402</v>
+        <v>9.515879367248262</v>
       </c>
       <c r="E24">
-        <v>18.05617904583418</v>
+        <v>18.0561790458342</v>
       </c>
       <c r="F24">
-        <v>63.00823281045152</v>
+        <v>63.00823281045184</v>
       </c>
       <c r="G24">
-        <v>51.27165949921719</v>
+        <v>51.27165949921738</v>
       </c>
       <c r="H24">
         <v>24.43369395671122</v>
       </c>
       <c r="I24">
-        <v>9.765593392275031</v>
+        <v>9.765593392275045</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>64.45040973616626</v>
+        <v>64.45040973616636</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.1548383190205</v>
+        <v>27.15483831902055</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.342416400211592</v>
+        <v>8.342416400211595</v>
       </c>
       <c r="E25">
-        <v>16.48409289961301</v>
+        <v>16.48409289961298</v>
       </c>
       <c r="F25">
-        <v>54.75280569142347</v>
+        <v>54.75280569142355</v>
       </c>
       <c r="G25">
-        <v>44.5387621549454</v>
+        <v>44.53876215494545</v>
       </c>
       <c r="H25">
-        <v>21.94822804595491</v>
+        <v>21.94822804595484</v>
       </c>
       <c r="I25">
-        <v>9.156937124008046</v>
+        <v>9.156937124008024</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>57.60150972631502</v>
+        <v>57.60150972631498</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.78418630620344</v>
+        <v>24.78303815229627</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.486597969955365</v>
+        <v>7.473803372561186</v>
       </c>
       <c r="E2">
-        <v>15.2562070163662</v>
+        <v>15.24289999612571</v>
       </c>
       <c r="F2">
-        <v>48.77214919876477</v>
+        <v>48.72202558707285</v>
       </c>
       <c r="G2">
-        <v>39.64509048721806</v>
+        <v>39.69827201848543</v>
       </c>
       <c r="H2">
-        <v>20.50357546146591</v>
+        <v>39.34488744172323</v>
       </c>
       <c r="I2">
-        <v>8.691159889838703</v>
+        <v>20.51711266524112</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.686996350260527</v>
       </c>
       <c r="K2">
-        <v>52.32302151769096</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>52.30365108788274</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.0713441484909</v>
+        <v>23.07042932827067</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.898207053561081</v>
+        <v>6.886725923722261</v>
       </c>
       <c r="E3">
-        <v>14.37680210602404</v>
+        <v>14.36474054377732</v>
       </c>
       <c r="F3">
-        <v>44.69624874103248</v>
+        <v>44.65151266557235</v>
       </c>
       <c r="G3">
-        <v>36.29856689329282</v>
+        <v>36.34828612979145</v>
       </c>
       <c r="H3">
-        <v>19.56989337981656</v>
+        <v>36.06438105682274</v>
       </c>
       <c r="I3">
-        <v>8.36604481310961</v>
+        <v>19.58235292428433</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.362302295297985</v>
       </c>
       <c r="K3">
-        <v>48.55779856001796</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>48.54060605115006</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.96484887610303</v>
+        <v>21.96406301591155</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.529662663141742</v>
+        <v>6.518982324340886</v>
       </c>
       <c r="E4">
-        <v>13.81320110612643</v>
+        <v>13.80192866218365</v>
       </c>
       <c r="F4">
-        <v>42.16395935580838</v>
+        <v>42.12240684126239</v>
       </c>
       <c r="G4">
-        <v>34.21322970169444</v>
+        <v>34.26066334382555</v>
       </c>
       <c r="H4">
-        <v>19.01745246374318</v>
+        <v>34.02637319991844</v>
       </c>
       <c r="I4">
-        <v>8.162445662351967</v>
+        <v>19.02914843111872</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.158978942918459</v>
       </c>
       <c r="K4">
-        <v>46.14339887600239</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>46.1274882113042</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.49985763760836</v>
+        <v>21.49912156365382</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.377277683937104</v>
+        <v>6.366924300304645</v>
       </c>
       <c r="E5">
-        <v>13.57760333438256</v>
+        <v>13.56666018832366</v>
       </c>
       <c r="F5">
-        <v>41.1225317198474</v>
+        <v>41.08225559428136</v>
       </c>
       <c r="G5">
-        <v>33.35395881498319</v>
+        <v>33.40042536593854</v>
       </c>
       <c r="H5">
-        <v>18.79744701452161</v>
+        <v>33.18824788878597</v>
       </c>
       <c r="I5">
-        <v>8.078598188648742</v>
+        <v>18.80880821760973</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.075248374871673</v>
       </c>
       <c r="K5">
-        <v>45.13252392007405</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>45.11712658361438</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.42178727918283</v>
+        <v>21.4210593259068</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.351831799292995</v>
+        <v>6.341532796377858</v>
       </c>
       <c r="E6">
-        <v>13.53812629501</v>
+        <v>13.5272383372013</v>
       </c>
       <c r="F6">
-        <v>40.94898062031201</v>
+        <v>40.90891542640782</v>
       </c>
       <c r="G6">
-        <v>33.21066051943136</v>
+        <v>33.25696444023924</v>
       </c>
       <c r="H6">
-        <v>18.76122218499654</v>
+        <v>33.04857794791759</v>
       </c>
       <c r="I6">
-        <v>8.064626114330018</v>
+        <v>18.77252643417694</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.061295988983099</v>
       </c>
       <c r="K6">
-        <v>44.96300723129545</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>44.94769470900187</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.95863524856943</v>
+        <v>21.95785007005101</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.527616896362573</v>
+        <v>6.516940962047863</v>
       </c>
       <c r="E7">
-        <v>13.81004767732348</v>
+        <v>13.79877964120091</v>
       </c>
       <c r="F7">
-        <v>42.14995505230299</v>
+        <v>42.10841982461863</v>
       </c>
       <c r="G7">
-        <v>34.20168172057893</v>
+        <v>34.24910245958949</v>
       </c>
       <c r="H7">
-        <v>19.01446477773974</v>
+        <v>34.01510265309039</v>
       </c>
       <c r="I7">
-        <v>8.161318254596342</v>
+        <v>19.02615632327035</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.157853093337659</v>
       </c>
       <c r="K7">
-        <v>46.12987659040733</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>46.11397287956262</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.20477623977172</v>
+        <v>24.20371207702337</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.284982168933417</v>
+        <v>7.272643022617416</v>
       </c>
       <c r="E8">
-        <v>14.957888056095</v>
+        <v>14.94500644928321</v>
       </c>
       <c r="F8">
-        <v>47.37152521318671</v>
+        <v>47.32329220416378</v>
       </c>
       <c r="G8">
-        <v>38.4963294425929</v>
+        <v>38.5483534241678</v>
       </c>
       <c r="H8">
-        <v>20.17721641045565</v>
+        <v>38.21756146418465</v>
       </c>
       <c r="I8">
-        <v>8.57995336789504</v>
+        <v>20.19040442117829</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.575931531935156</v>
       </c>
       <c r="K8">
-        <v>51.04526535752228</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>51.02666072679135</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.19101654457092</v>
+        <v>28.18923920094807</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.734169219755303</v>
+        <v>8.718396851886887</v>
       </c>
       <c r="E9">
-        <v>17.02389828243863</v>
+        <v>17.00795451201923</v>
       </c>
       <c r="F9">
-        <v>57.50427704271021</v>
+        <v>57.44125046646963</v>
       </c>
       <c r="G9">
-        <v>46.78511520265992</v>
+        <v>46.84460002227345</v>
       </c>
       <c r="H9">
-        <v>22.63380958342111</v>
+        <v>46.37395356346812</v>
       </c>
       <c r="I9">
-        <v>9.364862902269969</v>
+        <v>22.64902367558507</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.359874558657138</v>
       </c>
       <c r="K9">
-        <v>59.93846400757337</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>59.91381236909513</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.89359520192604</v>
+        <v>30.8910777681735</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.818845468755203</v>
+        <v>9.800174846779624</v>
       </c>
       <c r="E10">
-        <v>18.43959979101925</v>
+        <v>18.42128327035332</v>
       </c>
       <c r="F10">
-        <v>65.14331208216078</v>
+        <v>65.06691073051159</v>
       </c>
       <c r="G10">
-        <v>53.01008145193733</v>
+        <v>53.07337576880941</v>
       </c>
       <c r="H10">
-        <v>25.12397175486722</v>
+        <v>52.52464854346432</v>
       </c>
       <c r="I10">
-        <v>9.955451300371106</v>
+        <v>25.13790956985174</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.952374970155018</v>
       </c>
       <c r="K10">
-        <v>66.14421293919386</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>66.11397920241802</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.08322983458249</v>
+        <v>32.08028040835156</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.33152431547158</v>
+        <v>10.31134087666196</v>
       </c>
       <c r="E11">
-        <v>19.06663361913916</v>
+        <v>19.04713746024581</v>
       </c>
       <c r="F11">
-        <v>68.75479510808654</v>
+        <v>68.67112829324401</v>
       </c>
       <c r="G11">
-        <v>55.94870188347927</v>
+        <v>56.0130278647958</v>
       </c>
       <c r="H11">
-        <v>26.27560074422942</v>
+        <v>55.43315380318811</v>
       </c>
       <c r="I11">
-        <v>10.28900006809407</v>
+        <v>26.28931871143435</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.28584974008294</v>
       </c>
       <c r="K11">
-        <v>68.93961925554365</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>68.90631029638705</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.52912618746414</v>
+        <v>32.52599201259898</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.53040431493653</v>
+        <v>10.50960276545263</v>
       </c>
       <c r="E12">
-        <v>19.30241290486419</v>
+        <v>19.28244459090629</v>
       </c>
       <c r="F12">
-        <v>70.1544302027807</v>
+        <v>70.06774359415685</v>
       </c>
       <c r="G12">
-        <v>57.08703548162366</v>
+        <v>57.15159463590399</v>
       </c>
       <c r="H12">
-        <v>26.71594553546053</v>
+        <v>56.56047989268287</v>
       </c>
       <c r="I12">
-        <v>10.41191602086653</v>
+        <v>26.72953519451618</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.40873937837365</v>
       </c>
       <c r="K12">
-        <v>69.99982518039086</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>69.96523005228197</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.43327576039022</v>
+        <v>32.43018248727983</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.4873196302665</v>
+        <v>10.46665361171975</v>
       </c>
       <c r="E13">
-        <v>19.25169048591463</v>
+        <v>19.23182524279389</v>
       </c>
       <c r="F13">
-        <v>69.85130789227892</v>
+        <v>69.76528586978874</v>
       </c>
       <c r="G13">
-        <v>56.84052570272126</v>
+        <v>56.90504300252115</v>
       </c>
       <c r="H13">
-        <v>26.62087979097049</v>
+        <v>56.31632572833136</v>
       </c>
       <c r="I13">
-        <v>10.38559695697959</v>
+        <v>26.63449937844842</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.38242589809478</v>
       </c>
       <c r="K13">
-        <v>69.77130047934929</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>69.73698878953984</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.1199979604382</v>
+        <v>32.11703381873937</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.34777671786863</v>
+        <v>10.32754347193365</v>
       </c>
       <c r="E14">
-        <v>19.08605867833653</v>
+        <v>19.06652427283156</v>
       </c>
       <c r="F14">
-        <v>68.86921010265642</v>
+        <v>68.78530102214158</v>
       </c>
       <c r="G14">
-        <v>56.04176641570024</v>
+        <v>56.10611520844228</v>
       </c>
       <c r="H14">
-        <v>26.31172872310484</v>
+        <v>55.52530570517897</v>
       </c>
       <c r="I14">
-        <v>10.29918119489486</v>
+        <v>26.3254371386943</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.29602866507363</v>
       </c>
       <c r="K14">
-        <v>69.02676884992397</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>68.99335687309474</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.92754921207752</v>
+        <v>31.92466111067129</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.26299378099219</v>
+        <v>10.24301903301282</v>
       </c>
       <c r="E15">
-        <v>18.98441793828297</v>
+        <v>18.96508242442021</v>
       </c>
       <c r="F15">
-        <v>68.2722842542247</v>
+        <v>68.18963045797585</v>
       </c>
       <c r="G15">
-        <v>55.55620950366746</v>
+        <v>55.62043220866942</v>
       </c>
       <c r="H15">
-        <v>26.12299061859772</v>
+        <v>55.04453632471061</v>
       </c>
       <c r="I15">
-        <v>10.24580340031921</v>
+        <v>26.13674706693007</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.24266245584297</v>
       </c>
       <c r="K15">
-        <v>68.57114494920435</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>68.53826643052489</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.81513634637545</v>
+        <v>30.81264468500384</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.785877597532183</v>
+        <v>9.767300674492416</v>
       </c>
       <c r="E16">
-        <v>18.39833741887908</v>
+        <v>18.38009516777265</v>
       </c>
       <c r="F16">
-        <v>64.91098258100197</v>
+        <v>64.83502512244783</v>
       </c>
       <c r="G16">
-        <v>52.82095930989175</v>
+        <v>52.88416807080017</v>
       </c>
       <c r="H16">
-        <v>25.04917972988983</v>
+        <v>52.33755798194295</v>
       </c>
       <c r="I16">
-        <v>9.933185109038547</v>
+        <v>25.06312645782365</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.93011383140489</v>
       </c>
       <c r="K16">
-        <v>65.96139891853302</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>65.93135213751302</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.12319838182839</v>
+        <v>30.12092143856512</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.499268089064683</v>
+        <v>9.481489450437749</v>
       </c>
       <c r="E17">
-        <v>18.03488328963884</v>
+        <v>18.01727996354271</v>
       </c>
       <c r="F17">
-        <v>62.8911757515443</v>
+        <v>62.81896998835388</v>
       </c>
       <c r="G17">
-        <v>51.17632127099719</v>
+        <v>51.23869856432823</v>
       </c>
       <c r="H17">
-        <v>24.39566385122383</v>
+        <v>50.71112112414568</v>
       </c>
       <c r="I17">
-        <v>9.75730310045803</v>
+        <v>24.40966264325121</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.751844578378273</v>
       </c>
       <c r="K17">
-        <v>64.35664784241089</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>64.32817667787077</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.72138383921037</v>
+        <v>29.71922203649932</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.336075946100392</v>
+        <v>9.318739581189194</v>
       </c>
       <c r="E18">
-        <v>17.82417273039342</v>
+        <v>17.80692835916613</v>
       </c>
       <c r="F18">
-        <v>61.74130779899004</v>
+        <v>61.67115684961185</v>
       </c>
       <c r="G18">
-        <v>50.23963178335921</v>
+        <v>50.30146959100409</v>
       </c>
       <c r="H18">
-        <v>24.02112285354973</v>
+        <v>49.78525504595032</v>
       </c>
       <c r="I18">
-        <v>9.675305668207432</v>
+        <v>24.0351313809411</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.669945667995682</v>
       </c>
       <c r="K18">
-        <v>63.43060173266284</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>63.40299004661239</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.58465051775529</v>
+        <v>29.58252642670702</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.281059552088976</v>
+        <v>9.263870412636074</v>
       </c>
       <c r="E19">
-        <v>17.75252687056748</v>
+        <v>17.73540281257793</v>
       </c>
       <c r="F19">
-        <v>61.35372323830749</v>
+        <v>61.28425246120999</v>
       </c>
       <c r="G19">
-        <v>49.92383131819992</v>
+        <v>49.98547712564994</v>
       </c>
       <c r="H19">
-        <v>23.89449320356444</v>
+        <v>49.47318355006467</v>
       </c>
       <c r="I19">
-        <v>9.647441194134764</v>
+        <v>23.90850182909487</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.642114603911486</v>
       </c>
       <c r="K19">
-        <v>63.11640132524491</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>63.08907358202315</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.1972458942979</v>
+        <v>30.19494699980483</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.529594929323235</v>
+        <v>9.511733153251347</v>
       </c>
       <c r="E20">
-        <v>18.07374117430352</v>
+        <v>18.05607077796684</v>
       </c>
       <c r="F20">
-        <v>63.10488545859395</v>
+        <v>63.03229152475307</v>
       </c>
       <c r="G20">
-        <v>51.35037684674148</v>
+        <v>51.41284928696481</v>
       </c>
       <c r="H20">
-        <v>24.46508094780652</v>
+        <v>50.88320329101125</v>
       </c>
       <c r="I20">
-        <v>9.772430536387615</v>
+        <v>24.4790763575792</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.766953796468862</v>
       </c>
       <c r="K20">
-        <v>64.52775708123572</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>64.49912327351697</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.21212864224114</v>
+        <v>32.2091272290858</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.38861491868168</v>
+        <v>10.36825597758754</v>
       </c>
       <c r="E21">
-        <v>19.13474557151634</v>
+        <v>19.11511480392745</v>
       </c>
       <c r="F21">
-        <v>69.15667883602032</v>
+        <v>69.07215752473995</v>
       </c>
       <c r="G21">
-        <v>56.27558383776879</v>
+        <v>56.3399870560483</v>
       </c>
       <c r="H21">
-        <v>26.40239866884929</v>
+        <v>55.75684042428423</v>
       </c>
       <c r="I21">
-        <v>10.32465673825594</v>
+        <v>26.41608235741214</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.32149871592517</v>
       </c>
       <c r="K21">
-        <v>69.24535382074581</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>69.2116813765511</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.50311159533634</v>
+        <v>33.49951992098576</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.97936882583399</v>
+        <v>10.95709613791646</v>
       </c>
       <c r="E22">
-        <v>19.81920860766809</v>
+        <v>19.79813694338046</v>
       </c>
       <c r="F22">
-        <v>73.3093225495207</v>
+        <v>73.21533748107083</v>
       </c>
       <c r="G22">
-        <v>59.65209059027535</v>
+        <v>59.71677367533162</v>
       </c>
       <c r="H22">
-        <v>27.69494672906623</v>
+        <v>59.10185132792145</v>
       </c>
       <c r="I22">
-        <v>10.67594730435113</v>
+        <v>27.70815085449341</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.67271647187956</v>
       </c>
       <c r="K22">
-        <v>72.34294399567733</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>72.30522277280484</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.81594997836257</v>
+        <v>32.81268926934951</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.66046347146969</v>
+        <v>10.63924707917434</v>
       </c>
       <c r="E23">
-        <v>19.45433116356049</v>
+        <v>19.43404890576873</v>
       </c>
       <c r="F23">
-        <v>71.06911659177418</v>
+        <v>70.98038740973779</v>
       </c>
       <c r="G23">
-        <v>57.83082295304535</v>
+        <v>57.89547805252246</v>
       </c>
       <c r="H23">
-        <v>27.00177359503054</v>
+        <v>57.29724904880577</v>
       </c>
       <c r="I23">
-        <v>10.49032530666667</v>
+        <v>27.01526558475926</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.48713220867848</v>
       </c>
       <c r="K23">
-        <v>70.68578425121125</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>70.65031667601282</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.16378158306041</v>
+        <v>30.16149263809627</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.515879367248262</v>
+        <v>9.49805522841258</v>
       </c>
       <c r="E24">
-        <v>18.0561790458342</v>
+        <v>18.03853899730604</v>
       </c>
       <c r="F24">
-        <v>63.00823281045184</v>
+        <v>62.93581468010836</v>
       </c>
       <c r="G24">
-        <v>51.27165949921738</v>
+        <v>51.33408911136706</v>
       </c>
       <c r="H24">
-        <v>24.43369395671122</v>
+        <v>50.80537699329292</v>
       </c>
       <c r="I24">
-        <v>9.765593392275045</v>
+        <v>24.44769095769063</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.760124888123725</v>
       </c>
       <c r="K24">
-        <v>64.45040973616636</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>64.42184960093773</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.15483831902055</v>
+        <v>27.15328075265529</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.342416400211595</v>
+        <v>8.327612785569784</v>
       </c>
       <c r="E25">
-        <v>16.48409289961298</v>
+        <v>16.46898177528638</v>
       </c>
       <c r="F25">
-        <v>54.75280569142355</v>
+        <v>54.69407577695521</v>
       </c>
       <c r="G25">
-        <v>44.53876215494545</v>
+        <v>44.59644964439531</v>
       </c>
       <c r="H25">
-        <v>21.94822804595484</v>
+        <v>44.15894388909743</v>
       </c>
       <c r="I25">
-        <v>9.156937124008024</v>
+        <v>21.9630069273525</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.152198981331114</v>
       </c>
       <c r="K25">
-        <v>57.60150972631498</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>57.57862799104363</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.78303815229627</v>
+        <v>20.82331402844537</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.473803372561186</v>
+        <v>8.455011398910713</v>
       </c>
       <c r="E2">
-        <v>15.24289999612571</v>
+        <v>12.09443113693154</v>
       </c>
       <c r="F2">
-        <v>48.72202558707285</v>
+        <v>48.70487404892633</v>
       </c>
       <c r="G2">
-        <v>39.69827201848543</v>
+        <v>2.089590763485413</v>
       </c>
       <c r="H2">
-        <v>39.34488744172323</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>20.51711266524112</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.686996350260527</v>
+        <v>7.32664503280638</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>31.88802800837437</v>
       </c>
       <c r="L2">
-        <v>52.30365108788274</v>
+        <v>13.6977900131725</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>14.57113641251253</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.07042932827067</v>
+        <v>19.73252459000457</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.886725923722261</v>
+        <v>7.809162549388923</v>
       </c>
       <c r="E3">
-        <v>14.36474054377732</v>
+        <v>11.33765884246485</v>
       </c>
       <c r="F3">
-        <v>44.65151266557235</v>
+        <v>46.74612639222858</v>
       </c>
       <c r="G3">
-        <v>36.34828612979145</v>
+        <v>2.106832124997263</v>
       </c>
       <c r="H3">
-        <v>36.06438105682274</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>19.58235292428433</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.362302295297985</v>
+        <v>7.112635331789504</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>29.70967186585061</v>
       </c>
       <c r="L3">
-        <v>48.54060605115006</v>
+        <v>12.9593519757947</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>14.86318931556954</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.96406301591155</v>
+        <v>19.05328183873833</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.518982324340886</v>
+        <v>7.398059593605588</v>
       </c>
       <c r="E4">
-        <v>13.80192866218365</v>
+        <v>10.85830772484494</v>
       </c>
       <c r="F4">
-        <v>42.12240684126239</v>
+        <v>45.57104551169829</v>
       </c>
       <c r="G4">
-        <v>34.26066334382555</v>
+        <v>2.117561242460167</v>
       </c>
       <c r="H4">
-        <v>34.02637319991844</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>19.02914843111872</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>8.158978942918459</v>
+        <v>6.98036856516014</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>28.38076793956256</v>
       </c>
       <c r="L4">
-        <v>46.1274882113042</v>
+        <v>12.50060219059563</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>15.04541787313403</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.49912156365382</v>
+        <v>18.77429181234961</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.366924300304645</v>
+        <v>7.226675265374293</v>
       </c>
       <c r="E5">
-        <v>13.56666018832366</v>
+        <v>10.65913599504757</v>
       </c>
       <c r="F5">
-        <v>41.08225559428136</v>
+        <v>45.09909695529297</v>
       </c>
       <c r="G5">
-        <v>33.40042536593854</v>
+        <v>2.121976717618866</v>
       </c>
       <c r="H5">
-        <v>33.18824788878597</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>18.80880821760973</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.075248374871673</v>
+        <v>6.926208177533558</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>27.82976691651388</v>
       </c>
       <c r="L5">
-        <v>45.11712658361438</v>
+        <v>12.31240434864409</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>15.12045719323861</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.4210593259068</v>
+        <v>18.72784044527559</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.341532796377858</v>
+        <v>7.197978712613265</v>
       </c>
       <c r="E6">
-        <v>13.5272383372013</v>
+        <v>10.62582895044414</v>
       </c>
       <c r="F6">
-        <v>40.90891542640782</v>
+        <v>45.02114817148922</v>
       </c>
       <c r="G6">
-        <v>33.25696444023924</v>
+        <v>2.122712716775145</v>
       </c>
       <c r="H6">
-        <v>33.04857794791759</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>18.77252643417694</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.061295988983099</v>
+        <v>6.917198079617609</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>27.73770551449799</v>
       </c>
       <c r="L6">
-        <v>44.94769470900187</v>
+        <v>12.2810822650178</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>15.13296589608959</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.95785007005101</v>
+        <v>19.04952784826088</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.516940962047863</v>
+        <v>7.395764106083011</v>
       </c>
       <c r="E7">
-        <v>13.79877964120091</v>
+        <v>10.85563729552457</v>
       </c>
       <c r="F7">
-        <v>42.10841982461863</v>
+        <v>45.56465266021581</v>
       </c>
       <c r="G7">
-        <v>34.24910245958949</v>
+        <v>2.117620606776617</v>
       </c>
       <c r="H7">
-        <v>34.01510265309039</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>19.02615632327035</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.157853093337659</v>
+        <v>6.979639244019788</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>28.37337512767468</v>
       </c>
       <c r="L7">
-        <v>46.11397287956262</v>
+        <v>12.49806900336635</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>15.04642665957011</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.20371207702337</v>
+        <v>20.44927211079875</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.272643022617416</v>
+        <v>8.235216079546456</v>
       </c>
       <c r="E8">
-        <v>14.94500644928321</v>
+        <v>11.83644862746178</v>
       </c>
       <c r="F8">
-        <v>47.32329220416378</v>
+        <v>48.02371660488754</v>
       </c>
       <c r="G8">
-        <v>38.5483534241678</v>
+        <v>2.095510638410436</v>
       </c>
       <c r="H8">
-        <v>38.21756146418465</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>20.19040442117829</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.575931531935156</v>
+        <v>7.253004117354725</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>31.09635161018141</v>
       </c>
       <c r="L8">
-        <v>51.02666072679135</v>
+        <v>13.44432243780949</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>14.67126288326973</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.18923920094807</v>
+        <v>23.11466574569232</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.718396851886887</v>
+        <v>9.776231923357644</v>
       </c>
       <c r="E9">
-        <v>17.00795451201923</v>
+        <v>13.65188221577934</v>
       </c>
       <c r="F9">
-        <v>57.44125046646963</v>
+        <v>53.07338302298146</v>
       </c>
       <c r="G9">
-        <v>46.84460002227345</v>
+        <v>2.052901811490538</v>
       </c>
       <c r="H9">
-        <v>46.37395356346812</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>22.64902367558507</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>9.359874558657138</v>
+        <v>7.784874667484888</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>36.61072478915008</v>
       </c>
       <c r="L9">
-        <v>59.91381236909513</v>
+        <v>15.25677731638873</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>13.95633675256337</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.8910777681735</v>
+        <v>25.02572239536496</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.800174846779624</v>
+        <v>10.86135659728574</v>
       </c>
       <c r="E10">
-        <v>18.42128327035332</v>
+        <v>14.93599359661037</v>
       </c>
       <c r="F10">
-        <v>65.06691073051159</v>
+        <v>56.94774283131703</v>
       </c>
       <c r="G10">
-        <v>53.07337576880941</v>
+        <v>2.021413391382122</v>
       </c>
       <c r="H10">
-        <v>52.52464854346432</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>25.13790956985174</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9.952374970155018</v>
+        <v>8.178134383829514</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>40.43329632870396</v>
       </c>
       <c r="L10">
-        <v>66.11397920241802</v>
+        <v>16.86138843546486</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>13.44045575374607</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.08028040835156</v>
+        <v>25.88727424903338</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.31134087666196</v>
+        <v>11.3496079370908</v>
       </c>
       <c r="E11">
-        <v>19.04713746024581</v>
+        <v>15.51438447396194</v>
       </c>
       <c r="F11">
-        <v>68.67112829324401</v>
+        <v>58.75673936403692</v>
       </c>
       <c r="G11">
-        <v>56.0130278647958</v>
+        <v>2.006866934974894</v>
       </c>
       <c r="H11">
-        <v>55.43315380318811</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>26.28931871143435</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>10.28584974008294</v>
+        <v>8.359200976391152</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>42.13406647976934</v>
       </c>
       <c r="L11">
-        <v>68.90631029638705</v>
+        <v>17.57511535791665</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>13.20708227713536</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.52599201259898</v>
+        <v>26.21276361185761</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.50960276545263</v>
+        <v>11.5342323377256</v>
       </c>
       <c r="E12">
-        <v>19.28244459090629</v>
+        <v>15.73313083164474</v>
       </c>
       <c r="F12">
-        <v>70.06774359415685</v>
+        <v>59.44981159382476</v>
       </c>
       <c r="G12">
-        <v>57.15159463590399</v>
+        <v>2.001307395561801</v>
       </c>
       <c r="H12">
-        <v>56.56047989268287</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>26.72953519451618</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>10.40873937837365</v>
+        <v>8.428262356920783</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>42.77385517912567</v>
       </c>
       <c r="L12">
-        <v>69.96523005228197</v>
+        <v>17.84350633728922</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>13.11884033168029</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.43018248727983</v>
+        <v>26.14269019687232</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.46665361171975</v>
+        <v>11.49447268249751</v>
       </c>
       <c r="E13">
-        <v>19.23182524279389</v>
+        <v>15.68602198767005</v>
       </c>
       <c r="F13">
-        <v>69.76528586978874</v>
+        <v>59.30016174991862</v>
       </c>
       <c r="G13">
-        <v>56.90504300252115</v>
+        <v>2.002507366154429</v>
       </c>
       <c r="H13">
-        <v>56.31632572833136</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>26.63449937844842</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>10.38242589809478</v>
+        <v>8.413363258238922</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>42.63623189302329</v>
       </c>
       <c r="L13">
-        <v>69.73698878953984</v>
+        <v>17.78577751967927</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>13.1378398133604</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.11703381873937</v>
+        <v>25.91406512831374</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.32754347193365</v>
+        <v>11.3647991133096</v>
       </c>
       <c r="E14">
-        <v>19.06652427283156</v>
+        <v>15.53238279075996</v>
       </c>
       <c r="F14">
-        <v>68.78530102214158</v>
+        <v>58.81358820512417</v>
       </c>
       <c r="G14">
-        <v>56.10611520844228</v>
+        <v>2.006410697585242</v>
       </c>
       <c r="H14">
-        <v>55.52530570517897</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>26.3254371386943</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>10.29602866507363</v>
+        <v>8.364871540395066</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>42.18677953002032</v>
       </c>
       <c r="L14">
-        <v>68.99335687309474</v>
+        <v>17.59723030445811</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>13.19982023030406</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.92466111067129</v>
+        <v>25.77393968251585</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.24301903301282</v>
+        <v>11.28535266951305</v>
       </c>
       <c r="E15">
-        <v>18.96508242442021</v>
+        <v>15.43825683972443</v>
       </c>
       <c r="F15">
-        <v>68.18963045797585</v>
+        <v>58.51664349351712</v>
       </c>
       <c r="G15">
-        <v>55.62043220866942</v>
+        <v>2.008794304107283</v>
       </c>
       <c r="H15">
-        <v>55.04453632471061</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>26.13674706693007</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>10.24266245584297</v>
+        <v>8.335239765310652</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>41.91096397036279</v>
       </c>
       <c r="L15">
-        <v>68.53826643052489</v>
+        <v>17.48151233796092</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>13.2378005551908</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.81264468500384</v>
+        <v>24.96928851501262</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.767300674492416</v>
+        <v>10.82938094434905</v>
       </c>
       <c r="E16">
-        <v>18.38009516777265</v>
+        <v>14.89812257307223</v>
       </c>
       <c r="F16">
-        <v>64.83502512244783</v>
+        <v>56.83056256892884</v>
       </c>
       <c r="G16">
-        <v>52.88416807080017</v>
+        <v>2.022358019469795</v>
       </c>
       <c r="H16">
-        <v>52.33755798194295</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>25.06312645782365</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>9.93011383140489</v>
+        <v>8.166359510539868</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>40.32147837509397</v>
       </c>
       <c r="L16">
-        <v>65.93135213751302</v>
+        <v>16.81444991362777</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>13.45572863713517</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.12092143856512</v>
+        <v>24.47387534603343</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.481489450437749</v>
+        <v>10.5486079454826</v>
       </c>
       <c r="E17">
-        <v>18.01727996354271</v>
+        <v>14.56564421850779</v>
       </c>
       <c r="F17">
-        <v>62.81896998835388</v>
+        <v>55.80895107361707</v>
       </c>
       <c r="G17">
-        <v>51.23869856432823</v>
+        <v>2.030609611093793</v>
       </c>
       <c r="H17">
-        <v>50.71112112414568</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>24.40966264325121</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>9.751844578378273</v>
+        <v>8.063428653659921</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>39.33740318539692</v>
       </c>
       <c r="L17">
-        <v>64.32817667787077</v>
+        <v>16.40127488449762</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>13.58971362766665</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.71922203649932</v>
+        <v>24.18816333775155</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.318739581189194</v>
+        <v>10.38657267186957</v>
       </c>
       <c r="E18">
-        <v>17.80692835916613</v>
+        <v>14.37382968393227</v>
       </c>
       <c r="F18">
-        <v>61.67115684961185</v>
+        <v>55.22562230928138</v>
       </c>
       <c r="G18">
-        <v>50.30146959100409</v>
+        <v>2.035336148630851</v>
       </c>
       <c r="H18">
-        <v>49.78525504595032</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>24.0351313809411</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>9.669945667995682</v>
+        <v>8.004416410338617</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>38.76771177363523</v>
       </c>
       <c r="L18">
-        <v>63.40299004661239</v>
+        <v>16.1620106226467</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>13.66690418280017</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.58252642670702</v>
+        <v>24.0912863900002</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.263870412636074</v>
+        <v>10.33160346489057</v>
       </c>
       <c r="E19">
-        <v>17.73540281257793</v>
+        <v>14.30876998830851</v>
       </c>
       <c r="F19">
-        <v>61.28425246120999</v>
+        <v>55.02881732105882</v>
       </c>
       <c r="G19">
-        <v>49.98547712564994</v>
+        <v>2.036933632871413</v>
       </c>
       <c r="H19">
-        <v>49.47318355006467</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>23.90850182909487</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>9.642114603911486</v>
+        <v>7.984463839938092</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>38.57415937246677</v>
       </c>
       <c r="L19">
-        <v>63.08907358202315</v>
+        <v>16.08070774376252</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>13.69306295746477</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.19494699980483</v>
+        <v>24.52668979118918</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.511733153251347</v>
+        <v>10.57854948038331</v>
       </c>
       <c r="E20">
-        <v>18.05607077796684</v>
+        <v>14.60109375184122</v>
       </c>
       <c r="F20">
-        <v>63.03229152475307</v>
+        <v>55.91725250926382</v>
       </c>
       <c r="G20">
-        <v>51.41284928696481</v>
+        <v>2.029733365306316</v>
       </c>
       <c r="H20">
-        <v>50.88320329101125</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>24.4790763575792</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>9.766953796468862</v>
+        <v>8.07436489083884</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>39.44253223526569</v>
       </c>
       <c r="L20">
-        <v>64.49912327351697</v>
+        <v>16.44542192450271</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>13.57543807808791</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.2091272290858</v>
+        <v>25.98123491706688</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.36825597758754</v>
+        <v>11.40288998910129</v>
       </c>
       <c r="E21">
-        <v>19.11511480392745</v>
+        <v>15.57751281328136</v>
       </c>
       <c r="F21">
-        <v>69.07215752473995</v>
+        <v>58.95627523422565</v>
       </c>
       <c r="G21">
-        <v>56.3399870560483</v>
+        <v>2.005265755522192</v>
       </c>
       <c r="H21">
-        <v>55.75684042428423</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>26.41608235741214</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>10.32149871592517</v>
+        <v>8.379099578126951</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>42.31889889010266</v>
       </c>
       <c r="L21">
-        <v>69.2116813765511</v>
+        <v>17.65265745508086</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>13.18161193709975</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.49951992098576</v>
+        <v>26.99563247941261</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.95709613791646</v>
+        <v>11.9404192265769</v>
       </c>
       <c r="E22">
-        <v>19.79813694338046</v>
+        <v>16.21440309591378</v>
       </c>
       <c r="F22">
-        <v>73.21533748107083</v>
+        <v>60.99032825104851</v>
       </c>
       <c r="G22">
-        <v>59.71677367533162</v>
+        <v>1.988964624553291</v>
       </c>
       <c r="H22">
-        <v>59.10185132792145</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>27.70815085449341</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>10.67271647187956</v>
+        <v>8.581273124570963</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>44.17475439031722</v>
       </c>
       <c r="L22">
-        <v>72.30522277280484</v>
+        <v>18.43102380453118</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>12.9249678720767</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.81268926934951</v>
+        <v>26.43146203265501</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.63924707917434</v>
+        <v>11.65344280638312</v>
       </c>
       <c r="E23">
-        <v>19.43404890576873</v>
+        <v>15.87437787741469</v>
       </c>
       <c r="F23">
-        <v>70.98038740973779</v>
+        <v>59.89976090842959</v>
       </c>
       <c r="G23">
-        <v>57.89547805252246</v>
+        <v>1.997700726795674</v>
       </c>
       <c r="H23">
-        <v>57.29724904880577</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>27.01526558475926</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>10.48713220867848</v>
+        <v>8.473019289259717</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>43.18596279110668</v>
       </c>
       <c r="L23">
-        <v>70.65031667601282</v>
+        <v>18.01636023283051</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>13.06189288591386</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.16149263809627</v>
+        <v>24.50281518525774</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.49805522841258</v>
+        <v>10.56501486523682</v>
       </c>
       <c r="E24">
-        <v>18.03853899730604</v>
+        <v>14.58506913909721</v>
       </c>
       <c r="F24">
-        <v>62.93581468010836</v>
+        <v>55.86827703797271</v>
       </c>
       <c r="G24">
-        <v>51.33408911136706</v>
+        <v>2.030129568873946</v>
       </c>
       <c r="H24">
-        <v>50.80537699329292</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>24.44769095769063</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>9.760124888123725</v>
+        <v>8.069420120088663</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>39.39501573260007</v>
       </c>
       <c r="L24">
-        <v>64.42184960093773</v>
+        <v>16.42546845745092</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>13.58189154889836</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.15328075265529</v>
+        <v>22.40234391961899</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.327612785569784</v>
+        <v>9.369015871253259</v>
       </c>
       <c r="E25">
-        <v>16.46898177528638</v>
+        <v>13.17088997328569</v>
       </c>
       <c r="F25">
-        <v>54.69407577695521</v>
+        <v>51.6811001242033</v>
       </c>
       <c r="G25">
-        <v>44.59644964439531</v>
+        <v>2.06440796773453</v>
       </c>
       <c r="H25">
-        <v>44.15894388909743</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>21.9630069273525</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>9.152198981331114</v>
+        <v>7.640997604844041</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>35.16240768429744</v>
       </c>
       <c r="L25">
-        <v>57.57862799104363</v>
+        <v>14.77091086465195</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>14.14785394234847</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.82331402844537</v>
+        <v>7.244987515398657</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.455011398910713</v>
+        <v>3.911621038054736</v>
       </c>
       <c r="E2">
-        <v>12.09443113693154</v>
+        <v>11.24037826747135</v>
       </c>
       <c r="F2">
-        <v>48.70487404892633</v>
+        <v>11.09776373134705</v>
       </c>
       <c r="G2">
-        <v>2.089590763485413</v>
+        <v>18.00159290395104</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.078424821426535</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.32664503280638</v>
+        <v>8.449736400372123</v>
       </c>
       <c r="K2">
-        <v>31.88802800837437</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>13.6977900131725</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>69.52413560215611</v>
       </c>
       <c r="N2">
-        <v>14.57113641251253</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.01047455301861</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.73252459000457</v>
+        <v>6.886560766176506</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.809162549388923</v>
+        <v>4.136072031427386</v>
       </c>
       <c r="E3">
-        <v>11.33765884246485</v>
+        <v>10.39669086800542</v>
       </c>
       <c r="F3">
-        <v>46.74612639222858</v>
+        <v>11.00619363959778</v>
       </c>
       <c r="G3">
-        <v>2.106832124997263</v>
+        <v>16.62767082193833</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.14412640470738</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.112635331789504</v>
+        <v>7.805773809589424</v>
       </c>
       <c r="K3">
-        <v>29.70967186585061</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.9593519757947</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>64.70408025629656</v>
       </c>
       <c r="N3">
-        <v>14.86318931556954</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9.799357209557661</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.05328183873833</v>
+        <v>6.660936478982317</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.398059593605588</v>
+        <v>4.285233045718023</v>
       </c>
       <c r="E4">
-        <v>10.85830772484494</v>
+        <v>10.12258271796682</v>
       </c>
       <c r="F4">
-        <v>45.57104551169829</v>
+        <v>11.03991045574958</v>
       </c>
       <c r="G4">
-        <v>2.117561242460167</v>
+        <v>15.9129367740636</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.20117660239961</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.98036856516014</v>
+        <v>7.396507474344786</v>
       </c>
       <c r="K4">
-        <v>28.38076793956256</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>12.50060219059563</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>61.59802554949197</v>
       </c>
       <c r="N4">
-        <v>15.04541787313403</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.710796965777728</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.77429181234961</v>
+        <v>6.567703982784767</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.226675265374293</v>
+        <v>4.348441551975283</v>
       </c>
       <c r="E5">
-        <v>10.65913599504757</v>
+        <v>10.01653097277818</v>
       </c>
       <c r="F5">
-        <v>45.09909695529297</v>
+        <v>11.07393826783328</v>
       </c>
       <c r="G5">
-        <v>2.121976717618866</v>
+        <v>15.63387828909411</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.228208244115868</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.926208177533558</v>
+        <v>7.22599851838953</v>
       </c>
       <c r="K5">
-        <v>27.82976691651388</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>12.31240434864409</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>60.29440171943259</v>
       </c>
       <c r="N5">
-        <v>15.12045719323861</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.684347018647481</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.72784044527559</v>
+        <v>6.552148499765109</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.197978712613265</v>
+        <v>4.359073316848438</v>
       </c>
       <c r="E6">
-        <v>10.62582895044414</v>
+        <v>9.999254123926852</v>
       </c>
       <c r="F6">
-        <v>45.02114817148922</v>
+        <v>11.08074247230736</v>
       </c>
       <c r="G6">
-        <v>2.122712716775145</v>
+        <v>15.58828810943925</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.232913706015475</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.917198079617609</v>
+        <v>7.197453756864499</v>
       </c>
       <c r="K6">
-        <v>27.73770551449799</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12.2810822650178</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>60.07561950490822</v>
       </c>
       <c r="N6">
-        <v>15.13296589608959</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.680515784844106</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04952784826088</v>
+        <v>6.659684174324395</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.395764106083011</v>
+        <v>4.286076165153462</v>
       </c>
       <c r="E7">
-        <v>10.85563729552457</v>
+        <v>10.12112996593438</v>
       </c>
       <c r="F7">
-        <v>45.56465266021581</v>
+        <v>11.04029043484315</v>
       </c>
       <c r="G7">
-        <v>2.117620606776617</v>
+        <v>15.90912342190587</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.201526372109615</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.979639244019788</v>
+        <v>7.394223334351333</v>
       </c>
       <c r="K7">
-        <v>28.37337512767468</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>12.49806900336635</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>61.58059910596455</v>
       </c>
       <c r="N7">
-        <v>15.04642665957011</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.7104021833103</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.44927211079875</v>
+        <v>7.122610806451049</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.235216079546456</v>
+        <v>3.986358455708931</v>
       </c>
       <c r="E8">
-        <v>11.83644862746178</v>
+        <v>10.94275860319126</v>
       </c>
       <c r="F8">
-        <v>48.02371660488754</v>
+        <v>11.04619835906891</v>
       </c>
       <c r="G8">
-        <v>2.095510638410436</v>
+        <v>17.50444616691387</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.097349236877904</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.253004117354725</v>
+        <v>8.23042353776534</v>
       </c>
       <c r="K8">
-        <v>31.09635161018141</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>13.44432243780949</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>67.89193470145332</v>
       </c>
       <c r="N8">
-        <v>14.67126288326973</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>9.928767385231973</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.11466574569232</v>
+        <v>7.982818767978489</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.776231923357644</v>
+        <v>3.516094730100181</v>
       </c>
       <c r="E9">
-        <v>13.65188221577934</v>
+        <v>13.09330193973631</v>
       </c>
       <c r="F9">
-        <v>53.07338302298146</v>
+        <v>12.14397338453989</v>
       </c>
       <c r="G9">
-        <v>2.052901811490538</v>
+        <v>21.21857405281983</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.045953378602662</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.784874667484888</v>
+        <v>9.77256931085112</v>
       </c>
       <c r="K9">
-        <v>36.61072478915008</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>15.25677731638873</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>79.15867460317047</v>
       </c>
       <c r="N9">
-        <v>13.95633675256337</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>11.1566610080549</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.02572239536496</v>
+        <v>8.62962968903366</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.86135659728574</v>
+        <v>3.492006350820601</v>
       </c>
       <c r="E10">
-        <v>14.93599359661037</v>
+        <v>14.68934008933191</v>
       </c>
       <c r="F10">
-        <v>56.94774283131703</v>
+        <v>14.07982549445162</v>
       </c>
       <c r="G10">
-        <v>2.021413391382122</v>
+        <v>24.09335161981294</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.131255455289528</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.178134383829514</v>
+        <v>10.86637929470037</v>
       </c>
       <c r="K10">
-        <v>40.43329632870396</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>16.86138843546486</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>86.84518152612118</v>
       </c>
       <c r="N10">
-        <v>13.44045575374607</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>12.71023732421183</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.88727424903338</v>
+        <v>8.949369945240338</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.3496079370908</v>
+        <v>3.727852341851776</v>
       </c>
       <c r="E11">
-        <v>15.51438447396194</v>
+        <v>15.42748775495388</v>
       </c>
       <c r="F11">
-        <v>58.75673936403692</v>
+        <v>15.03256202105292</v>
       </c>
       <c r="G11">
-        <v>2.006866934974894</v>
+        <v>25.43933803153257</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.203690800190763</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.359200976391152</v>
+        <v>11.36114243554923</v>
       </c>
       <c r="K11">
-        <v>42.13406647976934</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>17.57511535791665</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>90.23705459053959</v>
       </c>
       <c r="N11">
-        <v>13.20708227713536</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.42992658588053</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.21276361185761</v>
+        <v>9.068339895461802</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.5342323377256</v>
+        <v>3.821444156892954</v>
       </c>
       <c r="E12">
-        <v>15.73313083164474</v>
+        <v>15.70970786741291</v>
       </c>
       <c r="F12">
-        <v>59.44981159382476</v>
+        <v>15.40400318404435</v>
       </c>
       <c r="G12">
-        <v>2.001307395561801</v>
+        <v>25.95549480394469</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.306044969514455</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.428262356920783</v>
+        <v>11.54868605281878</v>
       </c>
       <c r="K12">
-        <v>42.77385517912567</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>17.84350633728922</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>91.50882877678272</v>
       </c>
       <c r="N12">
-        <v>13.11884033168029</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.70489468100422</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.14269019687232</v>
+        <v>9.042809910096555</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.49447268249751</v>
+        <v>3.801093082744476</v>
       </c>
       <c r="E13">
-        <v>15.68602198767005</v>
+        <v>15.64878873505929</v>
       </c>
       <c r="F13">
-        <v>59.30016174991862</v>
+        <v>15.32352335691491</v>
       </c>
       <c r="G13">
-        <v>2.002507366154429</v>
+        <v>25.84402434723066</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.279547405628463</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.413363258238922</v>
+        <v>11.50827602194264</v>
       </c>
       <c r="K13">
-        <v>42.63623189302329</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>17.78577751967927</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>91.23544852385392</v>
       </c>
       <c r="N13">
-        <v>13.1378398133604</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.6455558052366</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.91406512831374</v>
+        <v>8.959199414148957</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.3647991133096</v>
+        <v>3.735464995420889</v>
       </c>
       <c r="E14">
-        <v>15.53238279075996</v>
+        <v>15.45064570309266</v>
       </c>
       <c r="F14">
-        <v>58.81358820512417</v>
+        <v>15.06290387832053</v>
       </c>
       <c r="G14">
-        <v>2.006410697585242</v>
+        <v>25.48166617527471</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.206282081691535</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.364871540395066</v>
+        <v>11.37656415401474</v>
       </c>
       <c r="K14">
-        <v>42.18677953002032</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>17.59723030445811</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>90.3419222622025</v>
       </c>
       <c r="N14">
-        <v>13.19982023030406</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.45249556714252</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.77393968251585</v>
+        <v>8.907713639861889</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.28535266951305</v>
+        <v>3.695830512378726</v>
       </c>
       <c r="E15">
-        <v>15.43825683972443</v>
+        <v>15.32966154598133</v>
       </c>
       <c r="F15">
-        <v>58.51664349351712</v>
+        <v>14.90467106331119</v>
       </c>
       <c r="G15">
-        <v>2.008794304107283</v>
+        <v>25.26058788924285</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.192954634333644</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.335239765310652</v>
+        <v>11.29593099636792</v>
       </c>
       <c r="K15">
-        <v>41.91096397036279</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>17.48151233796092</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>89.79304352490979</v>
       </c>
       <c r="N15">
-        <v>13.2378005551908</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.33457825032858</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.96928851501262</v>
+        <v>8.60843400415817</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.82938094434905</v>
+        <v>3.477180839931484</v>
       </c>
       <c r="E16">
-        <v>14.89812257307223</v>
+        <v>14.64142061227132</v>
       </c>
       <c r="F16">
-        <v>56.83056256892884</v>
+        <v>14.01902850590632</v>
       </c>
       <c r="G16">
-        <v>2.022358019469795</v>
+        <v>24.00623136612186</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.127248951446102</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.166359510539868</v>
+        <v>10.8340365764529</v>
       </c>
       <c r="K16">
-        <v>40.32147837509397</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>16.81444991362777</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>86.62160187084076</v>
       </c>
       <c r="N16">
-        <v>13.45572863713517</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.66350960530104</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.47387534603343</v>
+        <v>8.420986725182351</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.5486079454826</v>
+        <v>3.350461018779343</v>
       </c>
       <c r="E17">
-        <v>14.56564421850779</v>
+        <v>14.2229175409911</v>
       </c>
       <c r="F17">
-        <v>55.80895107361707</v>
+        <v>13.49426492730689</v>
       </c>
       <c r="G17">
-        <v>2.030609611093793</v>
+        <v>23.24708580019072</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.095972681037707</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.063428653659921</v>
+        <v>10.55034247378793</v>
       </c>
       <c r="K17">
-        <v>39.33740318539692</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>16.40127488449762</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>84.65076423624672</v>
       </c>
       <c r="N17">
-        <v>13.58971362766665</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.25550169639847</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.18816333775155</v>
+        <v>8.321493330442228</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.38657267186957</v>
+        <v>3.377785557797643</v>
       </c>
       <c r="E18">
-        <v>14.37382968393227</v>
+        <v>13.98327489108026</v>
       </c>
       <c r="F18">
-        <v>55.22562230928138</v>
+        <v>13.19918196211566</v>
       </c>
       <c r="G18">
-        <v>2.035336148630851</v>
+        <v>22.81396557912781</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.081111944659404</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.004416410338617</v>
+        <v>10.38686228645729</v>
       </c>
       <c r="K18">
-        <v>38.76771177363523</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>16.1620106226467</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>83.507161641737</v>
       </c>
       <c r="N18">
-        <v>13.66690418280017</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.02200162661988</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.0912863900002</v>
+        <v>8.291115701311966</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.33160346489057</v>
+        <v>3.388763319158784</v>
       </c>
       <c r="E19">
-        <v>14.30876998830851</v>
+        <v>13.90229415269193</v>
       </c>
       <c r="F19">
-        <v>55.02881732105882</v>
+        <v>13.10042848550615</v>
       </c>
       <c r="G19">
-        <v>2.036933632871413</v>
+        <v>22.66789983013081</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.076599828525453</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.984463839938092</v>
+        <v>10.33144188031754</v>
       </c>
       <c r="K19">
-        <v>38.57415937246677</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>16.08070774376252</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>83.11816908345979</v>
       </c>
       <c r="N19">
-        <v>13.69306295746477</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>11.943129823318</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.52668979118918</v>
+        <v>8.441089335241541</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.57854948038331</v>
+        <v>3.363672515655156</v>
       </c>
       <c r="E20">
-        <v>14.60109375184122</v>
+        <v>14.26735103915799</v>
       </c>
       <c r="F20">
-        <v>55.91725250926382</v>
+        <v>13.54942779804286</v>
       </c>
       <c r="G20">
-        <v>2.029733365306316</v>
+        <v>23.32752803421312</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.098974041544838</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.07436489083884</v>
+        <v>10.58057004676142</v>
       </c>
       <c r="K20">
-        <v>39.44253223526569</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>16.44542192450271</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>84.86158527328294</v>
       </c>
       <c r="N20">
-        <v>13.57543807808791</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.2988096217328</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.98123491706688</v>
+        <v>8.983814346609496</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.40288998910129</v>
+        <v>3.754623416734062</v>
       </c>
       <c r="E21">
-        <v>15.57751281328136</v>
+        <v>15.50876298770133</v>
       </c>
       <c r="F21">
-        <v>58.95627523422565</v>
+        <v>15.13916038669345</v>
       </c>
       <c r="G21">
-        <v>2.005265755522192</v>
+        <v>25.58791460453207</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.218719342864631</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.379099578126951</v>
+        <v>11.41524067554913</v>
       </c>
       <c r="K21">
-        <v>42.31889889010266</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>17.65265745508086</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>90.60469435363402</v>
       </c>
       <c r="N21">
-        <v>13.18161193709975</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.50913037631448</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.99563247941261</v>
+        <v>9.326273601611431</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.9404192265769</v>
+        <v>4.035264654076294</v>
       </c>
       <c r="E22">
-        <v>16.21440309591378</v>
+        <v>16.33646712559795</v>
       </c>
       <c r="F22">
-        <v>60.99032825104851</v>
+        <v>16.24073544012549</v>
       </c>
       <c r="G22">
-        <v>1.988964624553291</v>
+        <v>27.1036076758322</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.579704769858566</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.581273124570963</v>
+        <v>11.96221405944517</v>
       </c>
       <c r="K22">
-        <v>44.17475439031722</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>18.43102380453118</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>94.28589401511063</v>
       </c>
       <c r="N22">
-        <v>12.9249678720767</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.31476171669215</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.43146203265501</v>
+        <v>9.144585848289061</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.65344280638312</v>
+        <v>3.883092920453527</v>
       </c>
       <c r="E23">
-        <v>15.87437787741469</v>
+        <v>15.8928239807375</v>
       </c>
       <c r="F23">
-        <v>59.89976090842959</v>
+        <v>15.64686626586152</v>
       </c>
       <c r="G23">
-        <v>1.997700726795674</v>
+        <v>26.29071707156531</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.385810014420143</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.473019289259717</v>
+        <v>11.66991873690718</v>
       </c>
       <c r="K23">
-        <v>43.18596279110668</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>18.01636023283051</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>92.3268464685475</v>
       </c>
       <c r="N23">
-        <v>13.06189288591386</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.88320283447782</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.50281518525774</v>
+        <v>8.432005590353954</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.56501486523682</v>
+        <v>3.357691369160799</v>
       </c>
       <c r="E24">
-        <v>14.58506913909721</v>
+        <v>14.24725973224565</v>
       </c>
       <c r="F24">
-        <v>55.86827703797271</v>
+        <v>13.52446808923864</v>
       </c>
       <c r="G24">
-        <v>2.030129568873946</v>
+        <v>23.29114981784074</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.097607452081943</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.069420120088663</v>
+        <v>10.5669053894647</v>
       </c>
       <c r="K24">
-        <v>39.39501573260007</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>16.42546845745092</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>84.76630609109441</v>
       </c>
       <c r="N24">
-        <v>13.58189154889836</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.27922681919212</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.40234391961899</v>
+        <v>7.755616577195565</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.369015871253259</v>
+        <v>3.626084046910792</v>
       </c>
       <c r="E25">
-        <v>13.17088997328569</v>
+        <v>12.51107941991848</v>
       </c>
       <c r="F25">
-        <v>51.6811001242033</v>
+        <v>11.54219706638017</v>
       </c>
       <c r="G25">
-        <v>2.06440796773453</v>
+        <v>20.18937938482203</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.040508427781103</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.640997604844041</v>
+        <v>9.363928058412608</v>
       </c>
       <c r="K25">
-        <v>35.16240768429744</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>14.77091086465195</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>76.22147925689168</v>
       </c>
       <c r="N25">
-        <v>14.14785394234847</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.59317221646135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.244987515398657</v>
+        <v>7.786125762494509</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.911621038054736</v>
+        <v>9.548999784113093</v>
       </c>
       <c r="E2">
-        <v>11.24037826747135</v>
+        <v>13.75782453814284</v>
       </c>
       <c r="F2">
-        <v>11.09776373134705</v>
+        <v>23.71602032057022</v>
       </c>
       <c r="G2">
-        <v>18.00159290395104</v>
+        <v>21.44285660442219</v>
       </c>
       <c r="H2">
-        <v>6.078424821426535</v>
+        <v>12.374893069323</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.449736400372123</v>
+        <v>9.721307662064742</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>69.52413560215611</v>
+        <v>42.94676191689595</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.01047455301861</v>
+        <v>17.86342392662762</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.886560766176506</v>
+        <v>7.713342808772388</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.136072031427386</v>
+        <v>9.646280310233262</v>
       </c>
       <c r="E3">
-        <v>10.39669086800542</v>
+        <v>13.79054011205375</v>
       </c>
       <c r="F3">
-        <v>11.00619363959778</v>
+        <v>24.01827403035862</v>
       </c>
       <c r="G3">
-        <v>16.62767082193833</v>
+        <v>21.59406293032567</v>
       </c>
       <c r="H3">
-        <v>6.14412640470738</v>
+        <v>12.46511700664342</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.805773809589424</v>
+        <v>9.736926852917968</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>64.70408025629656</v>
+        <v>40.49120127923032</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.799357209557661</v>
+        <v>18.01486636710111</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.660936478982317</v>
+        <v>7.670124895763543</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.285233045718023</v>
+        <v>9.708943602025688</v>
       </c>
       <c r="E4">
-        <v>10.12258271796682</v>
+        <v>13.81720190190426</v>
       </c>
       <c r="F4">
-        <v>11.03991045574958</v>
+        <v>24.21556168698952</v>
       </c>
       <c r="G4">
-        <v>15.9129367740636</v>
+        <v>21.70388146720645</v>
       </c>
       <c r="H4">
-        <v>6.20117660239961</v>
+        <v>12.52408784307612</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.396507474344786</v>
+        <v>9.750067013653211</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>61.59802554949197</v>
+        <v>38.89726462035159</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.710796965777728</v>
+        <v>18.11553722273352</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.567703982784767</v>
+        <v>7.652902362747181</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.348441551975283</v>
+        <v>9.735217502409457</v>
       </c>
       <c r="E5">
-        <v>10.01653097277818</v>
+        <v>13.82970328372521</v>
       </c>
       <c r="F5">
-        <v>11.07393826783328</v>
+        <v>24.29887281002102</v>
       </c>
       <c r="G5">
-        <v>15.63387828909411</v>
+        <v>21.75281287259535</v>
       </c>
       <c r="H5">
-        <v>6.228208244115868</v>
+        <v>12.54901335697464</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.22599851838953</v>
+        <v>9.75630843498287</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>60.29440171943259</v>
+        <v>38.2262497041791</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.684347018647481</v>
+        <v>18.15847300937595</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.552148499765109</v>
+        <v>7.650066623235234</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.359073316848438</v>
+        <v>9.739624864270082</v>
       </c>
       <c r="E6">
-        <v>9.999254123926852</v>
+        <v>13.83187746737554</v>
       </c>
       <c r="F6">
-        <v>11.08074247230736</v>
+        <v>24.3128818137378</v>
       </c>
       <c r="G6">
-        <v>15.58828810943925</v>
+        <v>21.7611876686082</v>
       </c>
       <c r="H6">
-        <v>6.232913706015475</v>
+        <v>12.55320612451487</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.197453756864499</v>
+        <v>9.757398192970156</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>60.07561950490822</v>
+        <v>38.11353847040436</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.680515784844106</v>
+        <v>18.16571732038216</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.659684174324395</v>
+        <v>7.669891026282033</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.286076165153462</v>
+        <v>9.709294951510552</v>
       </c>
       <c r="E7">
-        <v>10.12112996593438</v>
+        <v>13.81736389632658</v>
       </c>
       <c r="F7">
-        <v>11.04029043484315</v>
+        <v>24.21667348384601</v>
       </c>
       <c r="G7">
-        <v>15.90912342190587</v>
+        <v>21.70452457044015</v>
       </c>
       <c r="H7">
-        <v>6.201526372109615</v>
+        <v>12.52442038101448</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.394223334351333</v>
+        <v>9.750147605479487</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>61.58059910596455</v>
+        <v>38.88830170634814</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.7104021833103</v>
+        <v>18.11610855685873</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.122610806451049</v>
+        <v>7.760736589169751</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.986358455708931</v>
+        <v>9.581933810893561</v>
       </c>
       <c r="E8">
-        <v>10.94275860319126</v>
+        <v>13.76773055312706</v>
       </c>
       <c r="F8">
-        <v>11.04619835906891</v>
+        <v>23.81779132840065</v>
       </c>
       <c r="G8">
-        <v>17.50444616691387</v>
+        <v>21.49141566624798</v>
       </c>
       <c r="H8">
-        <v>6.097349236877904</v>
+        <v>12.40525825720596</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.23042353776534</v>
+        <v>9.725952872825351</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>67.89193470145332</v>
+        <v>42.11808428428824</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.928767385231973</v>
+        <v>17.91403374696618</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.982818767978489</v>
+        <v>7.949683600102378</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.516094730100181</v>
+        <v>9.355420741912804</v>
       </c>
       <c r="E9">
-        <v>13.09330193973631</v>
+        <v>13.72327591558696</v>
       </c>
       <c r="F9">
-        <v>12.14397338453989</v>
+        <v>23.12975191428477</v>
       </c>
       <c r="G9">
-        <v>21.21857405281983</v>
+        <v>21.21209579392869</v>
       </c>
       <c r="H9">
-        <v>6.045953378602662</v>
+        <v>12.2001156988587</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.77256931085112</v>
+        <v>9.706929126306205</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>79.15867460317047</v>
+        <v>47.76124318020856</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.1566610080549</v>
+        <v>17.57968531603893</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.62962968903366</v>
+        <v>8.093883091017689</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.492006350820601</v>
+        <v>9.203136626854347</v>
       </c>
       <c r="E10">
-        <v>14.68934008933191</v>
+        <v>13.72376929211339</v>
       </c>
       <c r="F10">
-        <v>14.07982549445162</v>
+        <v>22.68355880638525</v>
       </c>
       <c r="G10">
-        <v>24.09335161981294</v>
+        <v>21.09643408083393</v>
       </c>
       <c r="H10">
-        <v>6.131255455289528</v>
+        <v>12.06705114987748</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.86637929470037</v>
+        <v>9.710610310489956</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>86.84518152612118</v>
+        <v>51.48082032157326</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.71023732421183</v>
+        <v>17.37311014759414</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.949369945240338</v>
+        <v>8.16038953242051</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.727852341851776</v>
+        <v>9.136923825305015</v>
       </c>
       <c r="E11">
-        <v>15.42748775495388</v>
+        <v>13.73136991667118</v>
       </c>
       <c r="F11">
-        <v>15.03256202105292</v>
+        <v>22.49389979618408</v>
       </c>
       <c r="G11">
-        <v>25.43933803153257</v>
+        <v>21.06426390756934</v>
       </c>
       <c r="H11">
-        <v>6.203690800190763</v>
+        <v>12.01040882958336</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.36114243554923</v>
+        <v>9.716182924841215</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>90.23705459053959</v>
+        <v>53.07983726153152</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.42992658588053</v>
+        <v>17.28791103918946</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.068339895461802</v>
+        <v>8.185682476086686</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.821444156892954</v>
+        <v>9.112291209140015</v>
       </c>
       <c r="E12">
-        <v>15.70970786741291</v>
+        <v>13.73532155852057</v>
       </c>
       <c r="F12">
-        <v>15.40400318404435</v>
+        <v>22.42403611288725</v>
       </c>
       <c r="G12">
-        <v>25.95549480394469</v>
+        <v>21.05509700103175</v>
       </c>
       <c r="H12">
-        <v>6.306044969514455</v>
+        <v>11.98952441075493</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.54868605281878</v>
+        <v>9.718858194189156</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>91.50882877678272</v>
+        <v>53.67194941135433</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.70489468100422</v>
+        <v>17.25693490029071</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.042809910096555</v>
+        <v>8.180230722107584</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.801093082744476</v>
+        <v>9.117576673012046</v>
       </c>
       <c r="E13">
-        <v>15.64878873505929</v>
+        <v>13.73442256892444</v>
       </c>
       <c r="F13">
-        <v>15.32352335691491</v>
+        <v>22.4389948299698</v>
       </c>
       <c r="G13">
-        <v>25.84402434723066</v>
+        <v>21.05693601867436</v>
       </c>
       <c r="H13">
-        <v>6.279547405628463</v>
+        <v>11.99399703458838</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.50827602194264</v>
+        <v>9.71825682929647</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>91.23544852385392</v>
+        <v>53.54502362893646</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.6455558052366</v>
+        <v>17.26354852108886</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.959199414148957</v>
+        <v>8.162468353418403</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.735464995420889</v>
+        <v>9.134888449039186</v>
       </c>
       <c r="E14">
-        <v>15.45064570309266</v>
+        <v>13.73167343817723</v>
       </c>
       <c r="F14">
-        <v>15.06290387832053</v>
+        <v>22.48811262233983</v>
       </c>
       <c r="G14">
-        <v>25.48166617527471</v>
+        <v>21.06344890041735</v>
       </c>
       <c r="H14">
-        <v>6.206282081691535</v>
+        <v>12.00867930422602</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.37656415401474</v>
+        <v>9.716391672269198</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>90.3419222622025</v>
+        <v>53.12881931852835</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.45249556714252</v>
+        <v>17.28533667492805</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.907713639861889</v>
+        <v>8.151601844125915</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.695830512378726</v>
+        <v>9.145549824353747</v>
       </c>
       <c r="E15">
-        <v>15.32966154598133</v>
+        <v>13.73012966985831</v>
       </c>
       <c r="F15">
-        <v>14.90467106331119</v>
+        <v>22.51845468758739</v>
       </c>
       <c r="G15">
-        <v>25.26058788924285</v>
+        <v>21.06783303640169</v>
       </c>
       <c r="H15">
-        <v>6.192954634333644</v>
+        <v>12.01774633859156</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.29593099636792</v>
+        <v>9.715322921434646</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>89.79304352490979</v>
+        <v>52.87213663492006</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.33457825032858</v>
+        <v>17.29885090354804</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.60843400415817</v>
+        <v>8.08955312352016</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.477180839931484</v>
+        <v>9.207525436028623</v>
       </c>
       <c r="E16">
-        <v>14.64142061227132</v>
+        <v>13.72342211875768</v>
       </c>
       <c r="F16">
-        <v>14.01902850590632</v>
+        <v>22.69622489762047</v>
       </c>
       <c r="G16">
-        <v>24.00623136612186</v>
+        <v>21.09895444811693</v>
       </c>
       <c r="H16">
-        <v>6.127248951446102</v>
+        <v>12.07083158970723</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.8340365764529</v>
+        <v>9.710324960296548</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>86.62160187084076</v>
+        <v>51.37444631672064</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.66350960530104</v>
+        <v>17.37885680230161</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.420986725182351</v>
+        <v>8.051705218216597</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.350461018779343</v>
+        <v>9.246329956712653</v>
       </c>
       <c r="E17">
-        <v>14.2229175409911</v>
+        <v>13.72120591951436</v>
       </c>
       <c r="F17">
-        <v>13.49426492730689</v>
+        <v>22.80872040561672</v>
       </c>
       <c r="G17">
-        <v>23.24708580019072</v>
+        <v>21.12333822363146</v>
       </c>
       <c r="H17">
-        <v>6.095972681037707</v>
+        <v>12.10439769764864</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.55034247378793</v>
+        <v>9.708260591162974</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>84.65076423624672</v>
+        <v>50.43181067868802</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.25550169639847</v>
+        <v>17.4302026989292</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.321493330442228</v>
+        <v>8.030023036015324</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.377785557797643</v>
+        <v>9.268937464053391</v>
       </c>
       <c r="E18">
-        <v>13.98327489108026</v>
+        <v>13.72062481019361</v>
       </c>
       <c r="F18">
-        <v>13.19918196211566</v>
+        <v>22.87467565474344</v>
       </c>
       <c r="G18">
-        <v>22.81396557912781</v>
+        <v>21.13928333482621</v>
       </c>
       <c r="H18">
-        <v>6.081111944659404</v>
+        <v>12.12406978355304</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.38686228645729</v>
+        <v>9.707439877545015</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>83.507161641737</v>
+        <v>49.88087443154334</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.02200162661988</v>
+        <v>17.46055970681576</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.291115701311966</v>
+        <v>8.022697435068091</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.388763319158784</v>
+        <v>9.276641461941489</v>
       </c>
       <c r="E19">
-        <v>13.90229415269193</v>
+        <v>13.72054677316499</v>
       </c>
       <c r="F19">
-        <v>13.10042848550615</v>
+        <v>22.89722057885476</v>
       </c>
       <c r="G19">
-        <v>22.66789983013081</v>
+        <v>21.14500948561287</v>
       </c>
       <c r="H19">
-        <v>6.076599828525453</v>
+        <v>12.13079306687162</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.33144188031754</v>
+        <v>9.707224827334507</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>83.11816908345979</v>
+        <v>49.69283382968959</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.943129823318</v>
+        <v>17.47097886085173</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.441089335241541</v>
+        <v>8.055725357538957</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.363672515655156</v>
+        <v>9.242169321989117</v>
       </c>
       <c r="E20">
-        <v>14.26735103915799</v>
+        <v>13.72136995765878</v>
       </c>
       <c r="F20">
-        <v>13.54942779804286</v>
+        <v>22.79661532193012</v>
       </c>
       <c r="G20">
-        <v>23.32752803421312</v>
+        <v>21.12054323118741</v>
       </c>
       <c r="H20">
-        <v>6.098974041544838</v>
+        <v>12.10078663535281</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.58057004676142</v>
+        <v>9.708442365206933</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>84.86158527328294</v>
+        <v>50.53306240542652</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.2988096217328</v>
+        <v>17.42465135612455</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.983814346609496</v>
+        <v>8.167682827532945</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.754623416734062</v>
+        <v>9.129791594974852</v>
       </c>
       <c r="E21">
-        <v>15.50876298770133</v>
+        <v>13.73245169546469</v>
       </c>
       <c r="F21">
-        <v>15.13916038669345</v>
+        <v>22.47363210930455</v>
       </c>
       <c r="G21">
-        <v>25.58791460453207</v>
+        <v>21.06145350553034</v>
       </c>
       <c r="H21">
-        <v>6.218719342864631</v>
+        <v>12.0043513923704</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.41524067554913</v>
+        <v>9.716924145167759</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>90.60469435363402</v>
+        <v>53.25143239339645</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.50913037631448</v>
+        <v>17.27890183494972</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.326273601611431</v>
+        <v>8.241475055024896</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.035264654076294</v>
+        <v>9.058915537201882</v>
       </c>
       <c r="E22">
-        <v>16.33646712559795</v>
+        <v>13.74595621957198</v>
       </c>
       <c r="F22">
-        <v>16.24073544012549</v>
+        <v>22.27396614348086</v>
       </c>
       <c r="G22">
-        <v>27.1036076758322</v>
+        <v>21.04044070992029</v>
       </c>
       <c r="H22">
-        <v>6.579704769858566</v>
+        <v>11.9446201642334</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.96221405944517</v>
+        <v>9.72576276376765</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>94.28589401511063</v>
+        <v>54.94993601399463</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.31476171669215</v>
+        <v>17.19115932114532</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.144585848289061</v>
+        <v>8.20204123961658</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.883092920453527</v>
+        <v>9.096508140396356</v>
       </c>
       <c r="E23">
-        <v>15.8928239807375</v>
+        <v>13.738171719901</v>
       </c>
       <c r="F23">
-        <v>15.64686626586152</v>
+        <v>22.37947228105275</v>
       </c>
       <c r="G23">
-        <v>26.29071707156531</v>
+        <v>21.05002138413331</v>
       </c>
       <c r="H23">
-        <v>6.385810014420143</v>
+        <v>11.97619650047224</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.66991873690718</v>
+        <v>9.720742526959233</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>92.3268464685475</v>
+        <v>54.05056224520665</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.88320283447782</v>
+        <v>17.23729318757962</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.432005590353954</v>
+        <v>8.053907610758765</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.357691369160799</v>
+        <v>9.244049415928208</v>
       </c>
       <c r="E24">
-        <v>14.24725973224565</v>
+        <v>13.72129363841398</v>
       </c>
       <c r="F24">
-        <v>13.52446808923864</v>
+        <v>22.80208404618122</v>
       </c>
       <c r="G24">
-        <v>23.29114981784074</v>
+        <v>21.12180085226585</v>
       </c>
       <c r="H24">
-        <v>6.097607452081943</v>
+        <v>12.10241803059957</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.5669053894647</v>
+        <v>9.708359045127253</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>84.76630609109441</v>
+        <v>50.48731453854868</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.27922681919212</v>
+        <v>17.42715851128542</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.755616577195565</v>
+        <v>7.897535158504462</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.626084046910792</v>
+        <v>9.414214409135161</v>
       </c>
       <c r="E25">
-        <v>12.51107941991848</v>
+        <v>13.72954279050217</v>
       </c>
       <c r="F25">
-        <v>11.54219706638017</v>
+        <v>23.30561402707751</v>
       </c>
       <c r="G25">
-        <v>20.18937938482203</v>
+        <v>21.27228556595217</v>
       </c>
       <c r="H25">
-        <v>6.040508427781103</v>
+        <v>12.25253135425766</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.363928058412608</v>
+        <v>9.708997224662181</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>76.22147925689168</v>
+        <v>46.30924321926478</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.59317221646135</v>
+        <v>17.66337174437779</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.786125762494509</v>
+        <v>7.244987515398608</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.548999784113093</v>
+        <v>3.911621038054617</v>
       </c>
       <c r="E2">
-        <v>13.75782453814284</v>
+        <v>11.24037826747135</v>
       </c>
       <c r="F2">
-        <v>23.71602032057022</v>
+        <v>11.09776373134704</v>
       </c>
       <c r="G2">
-        <v>21.44285660442219</v>
+        <v>18.00159290395107</v>
       </c>
       <c r="H2">
-        <v>12.374893069323</v>
+        <v>6.078424821426457</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.721307662064742</v>
+        <v>8.449736400372123</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>42.94676191689595</v>
+        <v>69.52413560215601</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.86342392662762</v>
+        <v>10.0104745530186</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.713342808772388</v>
+        <v>6.88656076617656</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.646280310233262</v>
+        <v>4.136072031427381</v>
       </c>
       <c r="E3">
-        <v>13.79054011205375</v>
+        <v>10.39669086800544</v>
       </c>
       <c r="F3">
-        <v>24.01827403035862</v>
+        <v>11.00619363959774</v>
       </c>
       <c r="G3">
-        <v>21.59406293032567</v>
+        <v>16.62767082193832</v>
       </c>
       <c r="H3">
-        <v>12.46511700664342</v>
+        <v>6.144126404707285</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.736926852917968</v>
+        <v>7.8057738095894</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>40.49120127923032</v>
+        <v>64.70408025629652</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.01486636710111</v>
+        <v>9.799357209557623</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.670124895763543</v>
+        <v>6.660936478982146</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.708943602025688</v>
+        <v>4.28523304571791</v>
       </c>
       <c r="E4">
-        <v>13.81720190190426</v>
+        <v>10.12258271796678</v>
       </c>
       <c r="F4">
-        <v>24.21556168698952</v>
+        <v>11.03991045574964</v>
       </c>
       <c r="G4">
-        <v>21.70388146720645</v>
+        <v>15.9129367740636</v>
       </c>
       <c r="H4">
-        <v>12.52408784307612</v>
+        <v>6.201176602399626</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.750067013653211</v>
+        <v>7.396507474344771</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>38.89726462035159</v>
+        <v>61.59802554949192</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.11553722273352</v>
+        <v>9.710796965777813</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.652902362747181</v>
+        <v>6.567703982784845</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.735217502409457</v>
+        <v>4.348441551975235</v>
       </c>
       <c r="E5">
-        <v>13.82970328372521</v>
+        <v>10.01653097277818</v>
       </c>
       <c r="F5">
-        <v>24.29887281002102</v>
+        <v>11.07393826783319</v>
       </c>
       <c r="G5">
-        <v>21.75281287259535</v>
+        <v>15.63387828909407</v>
       </c>
       <c r="H5">
-        <v>12.54901335697464</v>
+        <v>6.228208244115815</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.75630843498287</v>
+        <v>7.225998518389557</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>38.2262497041791</v>
+        <v>60.29440171943272</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.15847300937595</v>
+        <v>9.684347018647422</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.650066623235234</v>
+        <v>6.552148499765137</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.739624864270082</v>
+        <v>4.359073316848384</v>
       </c>
       <c r="E6">
-        <v>13.83187746737554</v>
+        <v>9.999254123926784</v>
       </c>
       <c r="F6">
-        <v>24.3128818137378</v>
+        <v>11.08074247230745</v>
       </c>
       <c r="G6">
-        <v>21.7611876686082</v>
+        <v>15.58828810943931</v>
       </c>
       <c r="H6">
-        <v>12.55320612451487</v>
+        <v>6.23291370601552</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.757398192970156</v>
+        <v>7.197453756864521</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>38.11353847040436</v>
+        <v>60.07561950490806</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.16571732038216</v>
+        <v>9.68051578484417</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.669891026282033</v>
+        <v>6.659684174324298</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.709294951510552</v>
+        <v>4.286076165153397</v>
       </c>
       <c r="E7">
-        <v>13.81736389632658</v>
+        <v>10.12112996593436</v>
       </c>
       <c r="F7">
-        <v>24.21667348384601</v>
+        <v>11.04029043484309</v>
       </c>
       <c r="G7">
-        <v>21.70452457044015</v>
+        <v>15.90912342190589</v>
       </c>
       <c r="H7">
-        <v>12.52442038101448</v>
+        <v>6.201526372109579</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.750147605479487</v>
+        <v>7.394223334351328</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>38.88830170634814</v>
+        <v>61.5805991059645</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.11610855685873</v>
+        <v>9.710402183310288</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.760736589169751</v>
+        <v>7.122610806451216</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.581933810893561</v>
+        <v>3.986358455708837</v>
       </c>
       <c r="E8">
-        <v>13.76773055312706</v>
+        <v>10.94275860319113</v>
       </c>
       <c r="F8">
-        <v>23.81779132840065</v>
+        <v>11.0461983590689</v>
       </c>
       <c r="G8">
-        <v>21.49141566624798</v>
+        <v>17.504446166914</v>
       </c>
       <c r="H8">
-        <v>12.40525825720596</v>
+        <v>6.097349236877929</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.725952872825351</v>
+        <v>8.230423537765294</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>42.11808428428824</v>
+        <v>67.89193470145283</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.91403374696618</v>
+        <v>9.928767385231961</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.949683600102378</v>
+        <v>7.982818767978585</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.355420741912804</v>
+        <v>3.516094730100128</v>
       </c>
       <c r="E9">
-        <v>13.72327591558696</v>
+        <v>13.0933019397364</v>
       </c>
       <c r="F9">
-        <v>23.12975191428477</v>
+        <v>12.14397338453994</v>
       </c>
       <c r="G9">
-        <v>21.21209579392869</v>
+        <v>21.21857405281987</v>
       </c>
       <c r="H9">
-        <v>12.2001156988587</v>
+        <v>6.045953378602654</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.706929126306205</v>
+        <v>9.772569310851166</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>47.76124318020856</v>
+        <v>79.15867460317052</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.57968531603893</v>
+        <v>11.15666100805492</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.093883091017689</v>
+        <v>8.629629689033521</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.203136626854347</v>
+        <v>3.492006350820533</v>
       </c>
       <c r="E10">
-        <v>13.72376929211339</v>
+        <v>14.68934008933182</v>
       </c>
       <c r="F10">
-        <v>22.68355880638525</v>
+        <v>14.07982549445154</v>
       </c>
       <c r="G10">
-        <v>21.09643408083393</v>
+        <v>24.09335161981282</v>
       </c>
       <c r="H10">
-        <v>12.06705114987748</v>
+        <v>6.131255455289581</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.710610310489956</v>
+        <v>10.86637929470033</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>51.48082032157326</v>
+        <v>86.84518152612092</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.37311014759414</v>
+        <v>12.71023732421174</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.16038953242051</v>
+        <v>8.949369945240306</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.136923825305015</v>
+        <v>3.727852341851769</v>
       </c>
       <c r="E11">
-        <v>13.73136991667118</v>
+        <v>15.42748775495384</v>
       </c>
       <c r="F11">
-        <v>22.49389979618408</v>
+        <v>15.03256202105288</v>
       </c>
       <c r="G11">
-        <v>21.06426390756934</v>
+        <v>25.43933803153243</v>
       </c>
       <c r="H11">
-        <v>12.01040882958336</v>
+        <v>6.203690800190811</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.716182924841215</v>
+        <v>11.36114243554915</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>53.07983726153152</v>
+        <v>90.23705459053943</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.28791103918946</v>
+        <v>13.42992658588052</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.185682476086686</v>
+        <v>9.068339895461728</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.112291209140015</v>
+        <v>3.821444156892934</v>
       </c>
       <c r="E12">
-        <v>13.73532155852057</v>
+        <v>15.70970786741283</v>
       </c>
       <c r="F12">
-        <v>22.42403611288725</v>
+        <v>15.40400318404432</v>
       </c>
       <c r="G12">
-        <v>21.05509700103175</v>
+        <v>25.95549480394465</v>
       </c>
       <c r="H12">
-        <v>11.98952441075493</v>
+        <v>6.306044969514415</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.718858194189156</v>
+        <v>11.5486860528187</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>53.67194941135433</v>
+        <v>91.50882877678252</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.25693490029071</v>
+        <v>13.70489468100418</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.180230722107584</v>
+        <v>9.042809910096503</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.117576673012046</v>
+        <v>3.801093082744619</v>
       </c>
       <c r="E13">
-        <v>13.73442256892444</v>
+        <v>15.64878873505958</v>
       </c>
       <c r="F13">
-        <v>22.4389948299698</v>
+        <v>15.32352335691481</v>
       </c>
       <c r="G13">
-        <v>21.05693601867436</v>
+        <v>25.8440243472306</v>
       </c>
       <c r="H13">
-        <v>11.99399703458838</v>
+        <v>6.279547405628409</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.71825682929647</v>
+        <v>11.5082760219428</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>53.54502362893646</v>
+        <v>91.23544852385479</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.26354852108886</v>
+        <v>13.64555580523657</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.162468353418403</v>
+        <v>8.959199414148934</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.134888449039186</v>
+        <v>3.735464995420903</v>
       </c>
       <c r="E14">
-        <v>13.73167343817723</v>
+        <v>15.45064570309262</v>
       </c>
       <c r="F14">
-        <v>22.48811262233983</v>
+        <v>15.0629038783205</v>
       </c>
       <c r="G14">
-        <v>21.06344890041735</v>
+        <v>25.4816661752747</v>
       </c>
       <c r="H14">
-        <v>12.00867930422602</v>
+        <v>6.206282081691542</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.716391672269198</v>
+        <v>11.37656415401476</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>53.12881931852835</v>
+        <v>90.34192226220244</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.28533667492805</v>
+        <v>13.4524955671425</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.151601844125915</v>
+        <v>8.907713639861912</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.145549824353747</v>
+        <v>3.695830512378603</v>
       </c>
       <c r="E15">
-        <v>13.73012966985831</v>
+        <v>15.32966154598116</v>
       </c>
       <c r="F15">
-        <v>22.51845468758739</v>
+        <v>14.90467106331112</v>
       </c>
       <c r="G15">
-        <v>21.06783303640169</v>
+        <v>25.26058788924285</v>
       </c>
       <c r="H15">
-        <v>12.01774633859156</v>
+        <v>6.192954634333674</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.715322921434646</v>
+        <v>11.2959309963678</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>52.87213663492006</v>
+        <v>89.79304352490924</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.29885090354804</v>
+        <v>13.33457825032856</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.08955312352016</v>
+        <v>8.608434004158138</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.207525436028623</v>
+        <v>3.477180839931544</v>
       </c>
       <c r="E16">
-        <v>13.72342211875768</v>
+        <v>14.64142061227144</v>
       </c>
       <c r="F16">
-        <v>22.69622489762047</v>
+        <v>14.01902850590623</v>
       </c>
       <c r="G16">
-        <v>21.09895444811693</v>
+        <v>24.00623136612182</v>
       </c>
       <c r="H16">
-        <v>12.07083158970723</v>
+        <v>6.127248951446044</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.710324960296548</v>
+        <v>10.83403657645295</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>51.37444631672064</v>
+        <v>86.62160187084113</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.37885680230161</v>
+        <v>12.66350960530098</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.051705218216597</v>
+        <v>8.42098672518223</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.246329956712653</v>
+        <v>3.350461018779382</v>
       </c>
       <c r="E17">
-        <v>13.72120591951436</v>
+        <v>14.22291754099119</v>
       </c>
       <c r="F17">
-        <v>22.80872040561672</v>
+        <v>13.49426492730689</v>
       </c>
       <c r="G17">
-        <v>21.12333822363146</v>
+        <v>23.2470858001908</v>
       </c>
       <c r="H17">
-        <v>12.10439769764864</v>
+        <v>6.095972681037722</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.708260591162974</v>
+        <v>10.55034247378798</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>50.43181067868802</v>
+        <v>84.65076423624697</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.4302026989292</v>
+        <v>12.25550169639847</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.030023036015324</v>
+        <v>8.321493330442301</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.268937464053391</v>
+        <v>3.377785557797662</v>
       </c>
       <c r="E18">
-        <v>13.72062481019361</v>
+        <v>13.98327489108022</v>
       </c>
       <c r="F18">
-        <v>22.87467565474344</v>
+        <v>13.19918196211555</v>
       </c>
       <c r="G18">
-        <v>21.13928333482621</v>
+        <v>22.81396557912771</v>
       </c>
       <c r="H18">
-        <v>12.12406978355304</v>
+        <v>6.081111944659482</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.707439877545015</v>
+        <v>10.38686228645726</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>49.88087443154334</v>
+        <v>83.50716164173679</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.46055970681576</v>
+        <v>12.0220016266198</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.022697435068091</v>
+        <v>8.291115701311941</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.276641461941489</v>
+        <v>3.388763319158754</v>
       </c>
       <c r="E19">
-        <v>13.72054677316499</v>
+        <v>13.90229415269181</v>
       </c>
       <c r="F19">
-        <v>22.89722057885476</v>
+        <v>13.10042848550619</v>
       </c>
       <c r="G19">
-        <v>21.14500948561287</v>
+        <v>22.66789983013085</v>
       </c>
       <c r="H19">
-        <v>12.13079306687162</v>
+        <v>6.076599828525453</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.707224827334507</v>
+        <v>10.33144188031743</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>49.69283382968959</v>
+        <v>83.11816908345952</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.47097886085173</v>
+        <v>11.94312982331802</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.055725357538957</v>
+        <v>8.441089335241665</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.242169321989117</v>
+        <v>3.363672515655066</v>
       </c>
       <c r="E20">
-        <v>13.72136995765878</v>
+        <v>14.26735103915783</v>
       </c>
       <c r="F20">
-        <v>22.79661532193012</v>
+        <v>13.54942779804282</v>
       </c>
       <c r="G20">
-        <v>21.12054323118741</v>
+        <v>23.32752803421314</v>
       </c>
       <c r="H20">
-        <v>12.10078663535281</v>
+        <v>6.098974041544852</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.708442365206933</v>
+        <v>10.58057004676137</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>50.53306240542652</v>
+        <v>84.86158527328253</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.42465135612455</v>
+        <v>12.29880962173278</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.167682827532945</v>
+        <v>8.983814346609432</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.129791594974852</v>
+        <v>3.754623416734161</v>
       </c>
       <c r="E21">
-        <v>13.73245169546469</v>
+        <v>15.50876298770134</v>
       </c>
       <c r="F21">
-        <v>22.47363210930455</v>
+        <v>15.13916038669346</v>
       </c>
       <c r="G21">
-        <v>21.06145350553034</v>
+        <v>25.58791460453206</v>
       </c>
       <c r="H21">
-        <v>12.0043513923704</v>
+        <v>6.218719342864639</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.716924145167759</v>
+        <v>11.41524067554913</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>53.25143239339645</v>
+        <v>90.6046943536342</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.27890183494972</v>
+        <v>13.50913037631449</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.241475055024896</v>
+        <v>9.326273601611261</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.058915537201882</v>
+        <v>4.035264654076196</v>
       </c>
       <c r="E22">
-        <v>13.74595621957198</v>
+        <v>16.3364671255978</v>
       </c>
       <c r="F22">
-        <v>22.27396614348086</v>
+        <v>16.24073544012546</v>
       </c>
       <c r="G22">
-        <v>21.04044070992029</v>
+        <v>27.10360767583217</v>
       </c>
       <c r="H22">
-        <v>11.9446201642334</v>
+        <v>6.579704769858571</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.72576276376765</v>
+        <v>11.96221405944508</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>54.94993601399463</v>
+        <v>94.28589401511013</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.19115932114532</v>
+        <v>14.31476171669213</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.20204123961658</v>
+        <v>9.144585848289058</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.096508140396356</v>
+        <v>3.88309292045357</v>
       </c>
       <c r="E23">
-        <v>13.738171719901</v>
+        <v>15.89282398073751</v>
       </c>
       <c r="F23">
-        <v>22.37947228105275</v>
+        <v>15.64686626586153</v>
       </c>
       <c r="G23">
-        <v>21.05002138413331</v>
+        <v>26.29071707156535</v>
       </c>
       <c r="H23">
-        <v>11.97619650047224</v>
+        <v>6.385810014420127</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.720742526959233</v>
+        <v>11.66991873690718</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>54.05056224520665</v>
+        <v>92.32684646854746</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.23729318757962</v>
+        <v>13.88320283447781</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.053907610758765</v>
+        <v>8.432005590354041</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.244049415928208</v>
+        <v>3.357691369160796</v>
       </c>
       <c r="E24">
-        <v>13.72129363841398</v>
+        <v>14.2472597322456</v>
       </c>
       <c r="F24">
-        <v>22.80208404618122</v>
+        <v>13.52446808923863</v>
       </c>
       <c r="G24">
-        <v>21.12180085226585</v>
+        <v>23.29114981784072</v>
       </c>
       <c r="H24">
-        <v>12.10241803059957</v>
+        <v>6.097607452081964</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.708359045127253</v>
+        <v>10.56690538946464</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>50.48731453854868</v>
+        <v>84.76630609109435</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.42715851128542</v>
+        <v>12.2792268191921</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.897535158504462</v>
+        <v>7.755616577195565</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.414214409135161</v>
+        <v>3.626084046910754</v>
       </c>
       <c r="E25">
-        <v>13.72954279050217</v>
+        <v>12.51107941991851</v>
       </c>
       <c r="F25">
-        <v>23.30561402707751</v>
+        <v>11.54219706638012</v>
       </c>
       <c r="G25">
-        <v>21.27228556595217</v>
+        <v>20.18937938482204</v>
       </c>
       <c r="H25">
-        <v>12.25253135425766</v>
+        <v>6.040508427781072</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.708997224662181</v>
+        <v>9.363928058412627</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>46.30924321926478</v>
+        <v>76.22147925689167</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.66337174437779</v>
+        <v>10.59317221646138</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.244987515398608</v>
+        <v>12.39188305473008</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.911621038054617</v>
+        <v>4.364189110026719</v>
       </c>
       <c r="E2">
-        <v>11.24037826747135</v>
+        <v>7.764468219499149</v>
       </c>
       <c r="F2">
-        <v>11.09776373134704</v>
+        <v>27.16109428199006</v>
       </c>
       <c r="G2">
-        <v>18.00159290395107</v>
+        <v>34.75728172368891</v>
       </c>
       <c r="H2">
-        <v>6.078424821426457</v>
+        <v>3.083973129873968</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.212653535246547</v>
       </c>
       <c r="J2">
-        <v>8.449736400372123</v>
+        <v>11.7099211837017</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.65513349012554</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.33290022979763</v>
       </c>
       <c r="M2">
-        <v>69.52413560215601</v>
+        <v>14.07909285455339</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.989512845975201</v>
       </c>
       <c r="O2">
-        <v>10.0104745530186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>13.9219624916985</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.88656076617656</v>
+        <v>11.72136356844064</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.136072031427381</v>
+        <v>4.265178788148119</v>
       </c>
       <c r="E3">
-        <v>10.39669086800544</v>
+        <v>7.609133220988746</v>
       </c>
       <c r="F3">
-        <v>11.00619363959774</v>
+        <v>26.6442398966429</v>
       </c>
       <c r="G3">
-        <v>16.62767082193832</v>
+        <v>33.84631727747462</v>
       </c>
       <c r="H3">
-        <v>6.144126404707285</v>
+        <v>3.304231513615496</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.351899523877635</v>
       </c>
       <c r="J3">
-        <v>7.8057738095894</v>
+        <v>11.63187668331469</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.65470048728348</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.246846456812809</v>
       </c>
       <c r="M3">
-        <v>64.70408025629652</v>
+        <v>13.16667191213041</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.652722987549423</v>
       </c>
       <c r="O3">
-        <v>9.799357209557623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>14.06920037486764</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.660936478982146</v>
+        <v>11.28679597899941</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.28523304571791</v>
+        <v>4.203181446530479</v>
       </c>
       <c r="E4">
-        <v>10.12258271796678</v>
+        <v>7.5109518718079</v>
       </c>
       <c r="F4">
-        <v>11.03991045574964</v>
+        <v>26.33082369718308</v>
       </c>
       <c r="G4">
-        <v>15.9129367740636</v>
+        <v>33.28984603477156</v>
       </c>
       <c r="H4">
-        <v>6.201176602399626</v>
+        <v>3.444339728381407</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.441144003345183</v>
       </c>
       <c r="J4">
-        <v>7.396507474344771</v>
+        <v>11.58766337691474</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.65606602070734</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.192312819934507</v>
       </c>
       <c r="M4">
-        <v>61.59802554949192</v>
+        <v>12.57480925673457</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.441419561544675</v>
       </c>
       <c r="O4">
-        <v>9.710796965777813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>14.16079495228924</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.567703982784845</v>
+        <v>11.09543755514797</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.348441551975235</v>
+        <v>4.177308065000551</v>
       </c>
       <c r="E5">
-        <v>10.01653097277818</v>
+        <v>7.469192996194447</v>
       </c>
       <c r="F5">
-        <v>11.07393826783319</v>
+        <v>26.19595587719656</v>
       </c>
       <c r="G5">
-        <v>15.63387828909407</v>
+        <v>33.05070077722371</v>
       </c>
       <c r="H5">
-        <v>6.228208244115815</v>
+        <v>3.503010391346483</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.480908655682617</v>
       </c>
       <c r="J5">
-        <v>7.225998518389557</v>
+        <v>11.56810592152946</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.65027946442683</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.169331438184941</v>
       </c>
       <c r="M5">
-        <v>60.29440171943272</v>
+        <v>12.32746517062506</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.358229483355344</v>
       </c>
       <c r="O5">
-        <v>9.684347018647422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>14.19726233130833</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.552148499765137</v>
+        <v>11.05274976990574</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.359073316848384</v>
+        <v>4.172611472959159</v>
       </c>
       <c r="E6">
-        <v>9.999254123926784</v>
+        <v>7.460966366469027</v>
       </c>
       <c r="F6">
-        <v>11.08074247230745</v>
+        <v>26.16354632347947</v>
       </c>
       <c r="G6">
-        <v>15.58828810943931</v>
+        <v>32.99473195050408</v>
       </c>
       <c r="H6">
-        <v>6.23291370601552</v>
+        <v>3.5132328037967</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.490679991232861</v>
       </c>
       <c r="J6">
-        <v>7.197453756864521</v>
+        <v>11.56190592696616</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.64110161460643</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.16510029084737</v>
       </c>
       <c r="M6">
-        <v>60.07561950490806</v>
+        <v>12.28813331552424</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.349191112183267</v>
       </c>
       <c r="O6">
-        <v>9.68051578484417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>14.20191068597477</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.659684174324298</v>
+        <v>11.25590342033482</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.286076165153397</v>
+        <v>4.20179866221915</v>
       </c>
       <c r="E7">
-        <v>10.12112996593436</v>
+        <v>7.507025960424279</v>
       </c>
       <c r="F7">
-        <v>11.04029043484309</v>
+        <v>26.30166318023889</v>
       </c>
       <c r="G7">
-        <v>15.90912342190589</v>
+        <v>33.24246012141515</v>
       </c>
       <c r="H7">
-        <v>6.201526372109579</v>
+        <v>3.446210729092219</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.44990225845808</v>
       </c>
       <c r="J7">
-        <v>7.394223334351328</v>
+        <v>11.57921740563118</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.63352409086776</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.190971455208993</v>
       </c>
       <c r="M7">
-        <v>61.5805991059645</v>
+        <v>12.57742468965921</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.453305913416846</v>
       </c>
       <c r="O7">
-        <v>9.710402183310288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>14.15744831350583</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.122610806451216</v>
+        <v>12.13041211479443</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.986358455708837</v>
+        <v>4.328979888066845</v>
       </c>
       <c r="E8">
-        <v>10.94275860319113</v>
+        <v>7.70723301579231</v>
       </c>
       <c r="F8">
-        <v>11.0461983590689</v>
+        <v>26.94693596878745</v>
       </c>
       <c r="G8">
-        <v>17.504446166914</v>
+        <v>34.38634386944185</v>
       </c>
       <c r="H8">
-        <v>6.097349236877929</v>
+        <v>3.160268255314238</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.270250408187795</v>
       </c>
       <c r="J8">
-        <v>8.230423537765294</v>
+        <v>11.67158159718053</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.62517328608106</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.302331503994477</v>
       </c>
       <c r="M8">
-        <v>67.89193470145283</v>
+        <v>13.77825607728582</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.890710050882524</v>
       </c>
       <c r="O8">
-        <v>9.928767385231961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>13.96767406220853</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.982818767978585</v>
+        <v>13.70561318121567</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.516094730100128</v>
+        <v>4.570377005689547</v>
       </c>
       <c r="E9">
-        <v>13.0933019397364</v>
+        <v>8.084156908737809</v>
       </c>
       <c r="F9">
-        <v>12.14397338453994</v>
+        <v>28.286097916688</v>
       </c>
       <c r="G9">
-        <v>21.21857405281987</v>
+        <v>36.71729553875443</v>
       </c>
       <c r="H9">
-        <v>6.045953378602654</v>
+        <v>2.635473515647357</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.933797533585687</v>
       </c>
       <c r="J9">
-        <v>9.772569310851166</v>
+        <v>11.89702758752662</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.66185258972147</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.509418431739848</v>
       </c>
       <c r="M9">
-        <v>79.15867460317052</v>
+        <v>15.87383590002757</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.687165937635559</v>
       </c>
       <c r="O9">
-        <v>11.15666100805492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>13.61068609704344</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.629629689033521</v>
+        <v>14.67734467308885</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.492006350820533</v>
+        <v>4.720416054130304</v>
       </c>
       <c r="E10">
-        <v>14.68934008933182</v>
+        <v>8.324530538503117</v>
       </c>
       <c r="F10">
-        <v>14.07982549445154</v>
+        <v>29.11086018687244</v>
       </c>
       <c r="G10">
-        <v>24.09335161981282</v>
+        <v>38.18240542811676</v>
       </c>
       <c r="H10">
-        <v>6.131255455289581</v>
+        <v>2.300307548167503</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.714282623091485</v>
       </c>
       <c r="J10">
-        <v>10.86637929470033</v>
+        <v>12.03411627880841</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.61098179743929</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.652000243054014</v>
       </c>
       <c r="M10">
-        <v>86.84518152612092</v>
+        <v>17.24739561976572</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.165396927979913</v>
       </c>
       <c r="O10">
-        <v>12.71023732421174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>13.33971907063348</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.949369945240306</v>
+        <v>14.57435368629884</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.727852341851769</v>
+        <v>4.615153210208273</v>
       </c>
       <c r="E11">
-        <v>15.42748775495384</v>
+        <v>8.318960870691766</v>
       </c>
       <c r="F11">
-        <v>15.03256202105288</v>
+        <v>28.08908879169945</v>
       </c>
       <c r="G11">
-        <v>25.43933803153243</v>
+        <v>36.85862294057512</v>
       </c>
       <c r="H11">
-        <v>6.203690800190811</v>
+        <v>3.12512941420516</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.680675296140839</v>
       </c>
       <c r="J11">
-        <v>11.36114243554915</v>
+        <v>11.70817223564121</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.91428010174974</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.745108299402391</v>
       </c>
       <c r="M11">
-        <v>90.23705459053943</v>
+        <v>17.69375397606553</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.67103330053293</v>
       </c>
       <c r="O11">
-        <v>13.42992658588052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>13.13103445396475</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.068339895461728</v>
+        <v>14.31776996384119</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.821444156892934</v>
+        <v>4.505998322284417</v>
       </c>
       <c r="E12">
-        <v>15.70970786741283</v>
+        <v>8.389845921385991</v>
       </c>
       <c r="F12">
-        <v>15.40400318404432</v>
+        <v>27.07141727292749</v>
       </c>
       <c r="G12">
-        <v>25.95549480394465</v>
+        <v>35.46189948150787</v>
       </c>
       <c r="H12">
-        <v>6.306044969514415</v>
+        <v>4.401305616767772</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.68025871095785</v>
       </c>
       <c r="J12">
-        <v>11.5486860528187</v>
+        <v>11.4094786830722</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.38563644391074</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.855852778470297</v>
       </c>
       <c r="M12">
-        <v>91.50882877678252</v>
+        <v>17.78339757921987</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.129294251797592</v>
       </c>
       <c r="O12">
-        <v>13.70489468100418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>13.03713905190329</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.042809910096503</v>
+        <v>13.88577426549006</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.801093082744619</v>
+        <v>4.384663116547745</v>
       </c>
       <c r="E13">
-        <v>15.64878873505958</v>
+        <v>8.5125055224497</v>
       </c>
       <c r="F13">
-        <v>15.32352335691481</v>
+        <v>25.94259282256006</v>
       </c>
       <c r="G13">
-        <v>25.8440243472306</v>
+        <v>33.8335322877653</v>
       </c>
       <c r="H13">
-        <v>6.279547405628409</v>
+        <v>5.775050238482585</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.718524468330501</v>
       </c>
       <c r="J13">
-        <v>11.5082760219428</v>
+        <v>11.09953668943999</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.92359017749991</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.980637850852156</v>
       </c>
       <c r="M13">
-        <v>91.23544852385479</v>
+        <v>17.61371496124048</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.522854828514689</v>
       </c>
       <c r="O13">
-        <v>13.64555580523657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>13.01877210870265</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.959199414148934</v>
+        <v>13.49146878244392</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.735464995420903</v>
+        <v>4.295562069778827</v>
       </c>
       <c r="E14">
-        <v>15.45064570309262</v>
+        <v>8.634562585038815</v>
       </c>
       <c r="F14">
-        <v>15.0629038783205</v>
+        <v>25.09193175721712</v>
       </c>
       <c r="G14">
-        <v>25.4816661752747</v>
+        <v>32.56642442577672</v>
       </c>
       <c r="H14">
-        <v>6.206282081691542</v>
+        <v>6.763912263966587</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.765219648434134</v>
       </c>
       <c r="J14">
-        <v>11.37656415401476</v>
+        <v>10.87576379672732</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.63171105133032</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.080180586614586</v>
       </c>
       <c r="M14">
-        <v>90.34192226220244</v>
+        <v>17.37672064152546</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.067204933126381</v>
       </c>
       <c r="O14">
-        <v>13.4524955671425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>13.04137880076638</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.907713639861912</v>
+        <v>13.34816074331672</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.695830512378603</v>
+        <v>4.269715276459056</v>
       </c>
       <c r="E15">
-        <v>15.32966154598116</v>
+        <v>8.66034641697718</v>
       </c>
       <c r="F15">
-        <v>14.90467106331112</v>
+        <v>24.85431459494267</v>
       </c>
       <c r="G15">
-        <v>25.26058788924285</v>
+        <v>32.19575078194442</v>
       </c>
       <c r="H15">
-        <v>6.192954634333674</v>
+        <v>6.996786735522561</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.789058130213453</v>
       </c>
       <c r="J15">
-        <v>11.2959309963678</v>
+        <v>10.817161644176</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.56738380944905</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.100328800359435</v>
       </c>
       <c r="M15">
-        <v>89.79304352490924</v>
+        <v>17.26433638918244</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.946537630125034</v>
       </c>
       <c r="O15">
-        <v>13.33457825032856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.05983407808508</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.608434004158138</v>
+        <v>12.99017357753927</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.477180839931544</v>
+        <v>4.226013431623842</v>
       </c>
       <c r="E16">
-        <v>14.64142061227144</v>
+        <v>8.527766875461529</v>
       </c>
       <c r="F16">
-        <v>14.01902850590623</v>
+        <v>24.68292608860748</v>
       </c>
       <c r="G16">
-        <v>24.00623136612182</v>
+        <v>31.80200774999121</v>
       </c>
       <c r="H16">
-        <v>6.127248951446044</v>
+        <v>6.820475876149576</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.880398662638249</v>
       </c>
       <c r="J16">
-        <v>10.83403657645295</v>
+        <v>10.81196948150715</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.67525207875036</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.010840181642817</v>
       </c>
       <c r="M16">
-        <v>86.62160187084113</v>
+        <v>16.72747492632852</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.843888446980671</v>
       </c>
       <c r="O16">
-        <v>12.66350960530098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.17126132342483</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.42098672518223</v>
+        <v>12.92943922172519</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.350461018779382</v>
+        <v>4.239397784916972</v>
       </c>
       <c r="E17">
-        <v>14.22291754099119</v>
+        <v>8.34933983750088</v>
       </c>
       <c r="F17">
-        <v>13.49426492730689</v>
+        <v>25.011786515061</v>
       </c>
       <c r="G17">
-        <v>23.2470858001908</v>
+        <v>32.19351042208169</v>
       </c>
       <c r="H17">
-        <v>6.095972681037722</v>
+        <v>6.134362624408142</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.926327242318245</v>
       </c>
       <c r="J17">
-        <v>10.55034247378798</v>
+        <v>10.92804079173636</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.90833486183708</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.883895414130124</v>
       </c>
       <c r="M17">
-        <v>84.65076423624697</v>
+        <v>16.4393970239804</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.015470102270887</v>
       </c>
       <c r="O17">
-        <v>12.25550169639847</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.24462978442223</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.321493330442301</v>
+        <v>13.14136693361023</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.377785557797662</v>
+        <v>4.310463241420509</v>
       </c>
       <c r="E18">
-        <v>13.98327489108022</v>
+        <v>8.164617953308218</v>
       </c>
       <c r="F18">
-        <v>13.19918196211555</v>
+        <v>25.82386585627867</v>
       </c>
       <c r="G18">
-        <v>22.81396557912771</v>
+        <v>33.32771085190161</v>
       </c>
       <c r="H18">
-        <v>6.081111944659482</v>
+        <v>4.973331301157043</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.927736496477994</v>
       </c>
       <c r="J18">
-        <v>10.38686228645726</v>
+        <v>11.16573876138541</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.30309032538236</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.735168054904348</v>
       </c>
       <c r="M18">
-        <v>83.50716164173679</v>
+        <v>16.33657936807067</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.434243002859252</v>
       </c>
       <c r="O18">
-        <v>12.0220016266198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>13.30449659814609</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.291115701311941</v>
+        <v>13.50871494077515</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.388763319158754</v>
+        <v>4.430274172089927</v>
       </c>
       <c r="E19">
-        <v>13.90229415269181</v>
+        <v>8.078818042187343</v>
       </c>
       <c r="F19">
-        <v>13.10042848550619</v>
+        <v>26.91530411504853</v>
       </c>
       <c r="G19">
-        <v>22.66789983013085</v>
+        <v>34.88731443623816</v>
       </c>
       <c r="H19">
-        <v>6.076599828525453</v>
+        <v>3.652309369225748</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.907315240861237</v>
       </c>
       <c r="J19">
-        <v>10.33144188031743</v>
+        <v>11.46950860777638</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.78628143298759</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.624497829919364</v>
       </c>
       <c r="M19">
-        <v>83.11816908345952</v>
+        <v>16.40099701055547</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.03686218726088</v>
       </c>
       <c r="O19">
-        <v>11.94312982331802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>13.36072772337363</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.441089335241665</v>
+        <v>14.35651772915724</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.363672515655066</v>
+        <v>4.677585258751773</v>
       </c>
       <c r="E20">
-        <v>14.26735103915783</v>
+        <v>8.252397382551658</v>
       </c>
       <c r="F20">
-        <v>13.54942779804282</v>
+        <v>28.80976920071144</v>
       </c>
       <c r="G20">
-        <v>23.32752803421314</v>
+        <v>37.66736329821438</v>
       </c>
       <c r="H20">
-        <v>6.098974041544852</v>
+        <v>2.389354339617938</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.797421281011099</v>
       </c>
       <c r="J20">
-        <v>10.58057004676137</v>
+        <v>11.97087958289284</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.55299078717831</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.612723637381904</v>
       </c>
       <c r="M20">
-        <v>84.86158527328253</v>
+        <v>16.90986990779595</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.071311957229204</v>
       </c>
       <c r="O20">
-        <v>12.29880962173278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>13.40016338860958</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.983814346609432</v>
+        <v>15.17088590166613</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.754623416734161</v>
+        <v>4.823659029972058</v>
       </c>
       <c r="E21">
-        <v>15.50876298770134</v>
+        <v>8.472161686011951</v>
       </c>
       <c r="F21">
-        <v>15.13916038669346</v>
+        <v>29.70671874853414</v>
       </c>
       <c r="G21">
-        <v>25.58791460453206</v>
+        <v>39.16349159718246</v>
       </c>
       <c r="H21">
-        <v>6.218719342864639</v>
+        <v>2.095647313880253</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.619860219447245</v>
       </c>
       <c r="J21">
-        <v>11.41524067554913</v>
+        <v>12.15561564090897</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.64890280367902</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.724011745245247</v>
       </c>
       <c r="M21">
-        <v>90.6046943536342</v>
+        <v>17.94117392437305</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.550078052342576</v>
       </c>
       <c r="O21">
-        <v>13.50913037631449</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>13.21344489859962</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.326273601611261</v>
+        <v>15.67869286248292</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.035264654076196</v>
+        <v>4.908514225586997</v>
       </c>
       <c r="E22">
-        <v>16.3364671255978</v>
+        <v>8.605683653988514</v>
       </c>
       <c r="F22">
-        <v>16.24073544012546</v>
+        <v>30.24292169297369</v>
       </c>
       <c r="G22">
-        <v>27.10360767583217</v>
+        <v>40.06945240384329</v>
       </c>
       <c r="H22">
-        <v>6.579704769858571</v>
+        <v>1.919568259641871</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.498903926706901</v>
       </c>
       <c r="J22">
-        <v>11.96221405944508</v>
+        <v>12.26732986902354</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.70270493252243</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.795547044978798</v>
       </c>
       <c r="M22">
-        <v>94.28589401511013</v>
+        <v>18.57400310427661</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.800734323662185</v>
       </c>
       <c r="O22">
-        <v>14.31476171669213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>13.0900706214116</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.144585848289058</v>
+        <v>15.43494680066395</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.88309292045357</v>
+        <v>4.864369153696405</v>
       </c>
       <c r="E23">
-        <v>15.89282398073751</v>
+        <v>8.537765542835386</v>
       </c>
       <c r="F23">
-        <v>15.64686626586153</v>
+        <v>29.98479086775131</v>
       </c>
       <c r="G23">
-        <v>26.29071707156535</v>
+        <v>39.62992118929405</v>
       </c>
       <c r="H23">
-        <v>6.385810014420127</v>
+        <v>2.012237018569477</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.552909271067509</v>
       </c>
       <c r="J23">
-        <v>11.66991873690718</v>
+        <v>12.21626557996822</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.69923608206269</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.758252461362818</v>
       </c>
       <c r="M23">
-        <v>92.32684646854746</v>
+        <v>18.23369857839051</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.655388779165579</v>
       </c>
       <c r="O23">
-        <v>13.88320283447781</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>13.15955417778966</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.432005590354041</v>
+        <v>14.42927633094369</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.357691369160796</v>
+        <v>4.693389737334835</v>
       </c>
       <c r="E24">
-        <v>14.2472597322456</v>
+        <v>8.272427846182683</v>
       </c>
       <c r="F24">
-        <v>13.52446808923863</v>
+        <v>28.96499269131216</v>
       </c>
       <c r="G24">
-        <v>23.29114981784072</v>
+        <v>37.89108913907558</v>
       </c>
       <c r="H24">
-        <v>6.097607452081964</v>
+        <v>2.37173537767627</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.779582126928413</v>
       </c>
       <c r="J24">
-        <v>10.56690538946464</v>
+        <v>12.01661977459756</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.65054783349812</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.61378725876713</v>
       </c>
       <c r="M24">
-        <v>84.76630609109435</v>
+        <v>16.89888608443383</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.111105212174083</v>
       </c>
       <c r="O24">
-        <v>12.2792268191921</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>13.41801838088431</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.755616577195565</v>
+        <v>13.2559952505351</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.626084046910754</v>
+        <v>4.504416075552605</v>
       </c>
       <c r="E25">
-        <v>12.51107941991851</v>
+        <v>7.978915186872827</v>
       </c>
       <c r="F25">
-        <v>11.54219706638012</v>
+        <v>27.87545078577649</v>
       </c>
       <c r="G25">
-        <v>20.18937938482204</v>
+        <v>36.01368689174923</v>
       </c>
       <c r="H25">
-        <v>6.040508427781072</v>
+        <v>2.775239315723473</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.036289588463906</v>
       </c>
       <c r="J25">
-        <v>9.363928058412627</v>
+        <v>11.81852994714441</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.61072272261307</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.453216914104925</v>
       </c>
       <c r="M25">
-        <v>76.22147925689167</v>
+        <v>15.3423422586601</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.497194192772673</v>
       </c>
       <c r="O25">
-        <v>10.59317221646138</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.70027921466543</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.39188305473008</v>
+        <v>11.56617749924179</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.364189110026719</v>
+        <v>4.267229571583952</v>
       </c>
       <c r="E2">
-        <v>7.764468219499149</v>
+        <v>7.438184333508437</v>
       </c>
       <c r="F2">
-        <v>27.16109428199006</v>
+        <v>26.37259529715866</v>
       </c>
       <c r="G2">
-        <v>34.75728172368891</v>
+        <v>33.27294817451419</v>
       </c>
       <c r="H2">
-        <v>3.083973129873968</v>
+        <v>2.908573269376095</v>
       </c>
       <c r="I2">
-        <v>4.212653535246547</v>
+        <v>3.920217488768939</v>
       </c>
       <c r="J2">
-        <v>11.7099211837017</v>
+        <v>11.69605355138962</v>
       </c>
       <c r="K2">
-        <v>18.65513349012554</v>
+        <v>17.51192556976385</v>
       </c>
       <c r="L2">
-        <v>6.33290022979763</v>
+        <v>13.6369779977619</v>
       </c>
       <c r="M2">
-        <v>14.07909285455339</v>
+        <v>12.24489214741974</v>
       </c>
       <c r="N2">
-        <v>7.989512845975201</v>
+        <v>6.149103709079535</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.17776088134727</v>
       </c>
       <c r="P2">
-        <v>13.9219624916985</v>
+        <v>8.460390434751845</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.62615422966947</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.72136356844064</v>
+        <v>10.94850465460624</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.265178788148119</v>
+        <v>4.176387287429119</v>
       </c>
       <c r="E3">
-        <v>7.609133220988746</v>
+        <v>7.294467512855792</v>
       </c>
       <c r="F3">
-        <v>26.6442398966429</v>
+        <v>25.91860391108101</v>
       </c>
       <c r="G3">
-        <v>33.84631727747462</v>
+        <v>32.51132142838297</v>
       </c>
       <c r="H3">
-        <v>3.304231513615496</v>
+        <v>3.114346058269009</v>
       </c>
       <c r="I3">
-        <v>4.351899523877635</v>
+        <v>4.040209009983197</v>
       </c>
       <c r="J3">
-        <v>11.63187668331469</v>
+        <v>11.59078350335343</v>
       </c>
       <c r="K3">
-        <v>18.65470048728348</v>
+        <v>17.55847248087804</v>
       </c>
       <c r="L3">
-        <v>6.246846456812809</v>
+        <v>13.75099217956389</v>
       </c>
       <c r="M3">
-        <v>13.16667191213041</v>
+        <v>12.23977519997559</v>
       </c>
       <c r="N3">
-        <v>7.652722987549423</v>
+        <v>6.063296173457053</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.2519321513668</v>
       </c>
       <c r="P3">
-        <v>14.06920037486764</v>
+        <v>8.10221434388024</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.77147431312757</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.28679597899941</v>
+        <v>10.54628731492262</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.203181446530479</v>
+        <v>4.119573745337286</v>
       </c>
       <c r="E4">
-        <v>7.5109518718079</v>
+        <v>7.203746725809513</v>
       </c>
       <c r="F4">
-        <v>26.33082369718308</v>
+        <v>25.64308885160755</v>
       </c>
       <c r="G4">
-        <v>33.28984603477156</v>
+        <v>32.05167970820959</v>
       </c>
       <c r="H4">
-        <v>3.444339728381407</v>
+        <v>3.24529050957864</v>
       </c>
       <c r="I4">
-        <v>4.441144003345183</v>
+        <v>4.117414353329025</v>
       </c>
       <c r="J4">
-        <v>11.58766337691474</v>
+        <v>11.52700622277668</v>
       </c>
       <c r="K4">
-        <v>18.65606602070734</v>
+        <v>17.58768630639736</v>
       </c>
       <c r="L4">
-        <v>6.192312819934507</v>
+        <v>13.82094349204757</v>
       </c>
       <c r="M4">
-        <v>12.57480925673457</v>
+        <v>12.24973690858626</v>
       </c>
       <c r="N4">
-        <v>7.441419561544675</v>
+        <v>6.009077659152997</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.65107720977893</v>
       </c>
       <c r="P4">
-        <v>14.16079495228924</v>
+        <v>7.877972885428189</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.86204063813651</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.09543755514797</v>
+        <v>10.36825004154651</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.177308065000551</v>
+        <v>4.09587906280633</v>
       </c>
       <c r="E5">
-        <v>7.469192996194447</v>
+        <v>7.165297013494778</v>
       </c>
       <c r="F5">
-        <v>26.19595587719656</v>
+        <v>25.52385427719092</v>
       </c>
       <c r="G5">
-        <v>33.05070077722371</v>
+        <v>31.85382630371388</v>
       </c>
       <c r="H5">
-        <v>3.503010391346483</v>
+        <v>3.300133064107883</v>
       </c>
       <c r="I5">
-        <v>4.480908655682617</v>
+        <v>4.152614911852449</v>
       </c>
       <c r="J5">
-        <v>11.56810592152946</v>
+        <v>11.49885628093331</v>
       </c>
       <c r="K5">
-        <v>18.65027946442683</v>
+        <v>17.59355336015194</v>
       </c>
       <c r="L5">
-        <v>6.169331438184941</v>
+        <v>13.84339615554465</v>
       </c>
       <c r="M5">
-        <v>12.32746517062506</v>
+        <v>12.25375000504611</v>
       </c>
       <c r="N5">
-        <v>7.358229483355344</v>
+        <v>5.986378774818143</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.39981367392974</v>
       </c>
       <c r="P5">
-        <v>14.19726233130833</v>
+        <v>7.789321229467492</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.89833550216081</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.05274976990574</v>
+        <v>10.32803479133723</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.172611472959159</v>
+        <v>4.091576581473319</v>
       </c>
       <c r="E6">
-        <v>7.460966366469027</v>
+        <v>7.157855636264816</v>
       </c>
       <c r="F6">
-        <v>26.16354632347947</v>
+        <v>25.49451269896528</v>
       </c>
       <c r="G6">
-        <v>32.99473195050408</v>
+        <v>31.80557789095323</v>
       </c>
       <c r="H6">
-        <v>3.5132328037967</v>
+        <v>3.309686302529777</v>
       </c>
       <c r="I6">
-        <v>4.490679991232861</v>
+        <v>4.162150656146889</v>
       </c>
       <c r="J6">
-        <v>11.56190592696616</v>
+        <v>11.49128099437092</v>
       </c>
       <c r="K6">
-        <v>18.64110161460643</v>
+        <v>17.58697671000707</v>
       </c>
       <c r="L6">
-        <v>6.16510029084737</v>
+        <v>13.83975577924263</v>
       </c>
       <c r="M6">
-        <v>12.28813331552424</v>
+        <v>12.25052312403461</v>
       </c>
       <c r="N6">
-        <v>7.349191112183267</v>
+        <v>5.9823346447274</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.35973660199721</v>
       </c>
       <c r="P6">
-        <v>14.20191068597477</v>
+        <v>7.779062274934054</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.90321578354821</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.25590342033482</v>
+        <v>10.51701265114019</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.20179866221915</v>
+        <v>4.122317266283221</v>
       </c>
       <c r="E7">
-        <v>7.507025960424279</v>
+        <v>7.200955531003399</v>
       </c>
       <c r="F7">
-        <v>26.30166318023889</v>
+        <v>25.59600329403174</v>
       </c>
       <c r="G7">
-        <v>33.24246012141515</v>
+        <v>32.07726158544254</v>
       </c>
       <c r="H7">
-        <v>3.446210729092219</v>
+        <v>3.247756239378413</v>
       </c>
       <c r="I7">
-        <v>4.44990225845808</v>
+        <v>4.127911913953693</v>
       </c>
       <c r="J7">
-        <v>11.57921740563118</v>
+        <v>11.47099188556311</v>
       </c>
       <c r="K7">
-        <v>18.63352409086776</v>
+        <v>17.56141503753411</v>
       </c>
       <c r="L7">
-        <v>6.190971455208993</v>
+        <v>13.79610791042431</v>
       </c>
       <c r="M7">
-        <v>12.57742468965921</v>
+        <v>12.23491384760793</v>
       </c>
       <c r="N7">
-        <v>7.453305913416846</v>
+        <v>6.007686829820751</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.64283742427881</v>
       </c>
       <c r="P7">
-        <v>14.15744831350583</v>
+        <v>7.88485732011651</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.85820189415804</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.13041211479443</v>
+        <v>11.32610504642902</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.328979888066845</v>
+        <v>4.247973607112558</v>
       </c>
       <c r="E8">
-        <v>7.70723301579231</v>
+        <v>7.387214114943945</v>
       </c>
       <c r="F8">
-        <v>26.94693596878745</v>
+        <v>26.11888172959252</v>
       </c>
       <c r="G8">
-        <v>34.38634386944185</v>
+        <v>33.18323207170785</v>
       </c>
       <c r="H8">
-        <v>3.160268255314238</v>
+        <v>2.982080374805248</v>
       </c>
       <c r="I8">
-        <v>4.270250408187795</v>
+        <v>3.974294049499783</v>
       </c>
       <c r="J8">
-        <v>11.67158159718053</v>
+        <v>11.49365265711031</v>
       </c>
       <c r="K8">
-        <v>18.62517328608106</v>
+        <v>17.48229253803911</v>
       </c>
       <c r="L8">
-        <v>6.302331503994477</v>
+        <v>13.63576895500049</v>
       </c>
       <c r="M8">
-        <v>13.77825607728582</v>
+        <v>12.21151410939471</v>
       </c>
       <c r="N8">
-        <v>7.890710050882524</v>
+        <v>6.117719984571829</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.83972893200086</v>
       </c>
       <c r="P8">
-        <v>13.96767406220853</v>
+        <v>8.340211170045729</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.66860693919262</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.70561318121567</v>
+        <v>12.77011977048609</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.570377005689547</v>
+        <v>4.472661367501301</v>
       </c>
       <c r="E9">
-        <v>8.084156908737809</v>
+        <v>7.736446219109881</v>
       </c>
       <c r="F9">
-        <v>28.286097916688</v>
+        <v>27.28328936386282</v>
       </c>
       <c r="G9">
-        <v>36.71729553875443</v>
+        <v>35.21991295702317</v>
       </c>
       <c r="H9">
-        <v>2.635473515647357</v>
+        <v>2.492509908671141</v>
       </c>
       <c r="I9">
-        <v>3.933797533585687</v>
+        <v>3.683530150137788</v>
       </c>
       <c r="J9">
-        <v>11.89702758752662</v>
+        <v>11.73113552542593</v>
       </c>
       <c r="K9">
-        <v>18.66185258972147</v>
+        <v>17.38940837184247</v>
       </c>
       <c r="L9">
-        <v>6.509418431739848</v>
+        <v>13.37210575052148</v>
       </c>
       <c r="M9">
-        <v>15.87383590002757</v>
+        <v>12.30471720514485</v>
       </c>
       <c r="N9">
-        <v>8.687165937635559</v>
+        <v>6.324292857222765</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.96052743289706</v>
       </c>
       <c r="P9">
-        <v>13.61068609704344</v>
+        <v>9.188910782482175</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.31617867898028</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.67734467308885</v>
+        <v>13.6621569300207</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.720416054130304</v>
+        <v>4.63289661146742</v>
       </c>
       <c r="E10">
-        <v>8.324530538503117</v>
+        <v>7.967956828955812</v>
       </c>
       <c r="F10">
-        <v>29.11086018687244</v>
+        <v>27.89008552857414</v>
       </c>
       <c r="G10">
-        <v>38.18240542811676</v>
+        <v>36.88639612275936</v>
       </c>
       <c r="H10">
-        <v>2.300307548167503</v>
+        <v>2.185341463317728</v>
       </c>
       <c r="I10">
-        <v>3.714282623091485</v>
+        <v>3.498845390168982</v>
       </c>
       <c r="J10">
-        <v>12.03411627880841</v>
+        <v>11.60783793788234</v>
       </c>
       <c r="K10">
-        <v>18.61098179743929</v>
+        <v>17.22354622901448</v>
       </c>
       <c r="L10">
-        <v>6.652000243054014</v>
+        <v>13.10184202557042</v>
       </c>
       <c r="M10">
-        <v>17.24739561976572</v>
+        <v>12.35638309831258</v>
       </c>
       <c r="N10">
-        <v>9.165396927979913</v>
+        <v>6.469572812527185</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.29966737693963</v>
       </c>
       <c r="P10">
-        <v>13.33971907063348</v>
+        <v>9.679978318219764</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.05044000820865</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.57435368629884</v>
+        <v>13.62068974728517</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.615153210208273</v>
+        <v>4.56548740290112</v>
       </c>
       <c r="E11">
-        <v>8.318960870691766</v>
+        <v>8.011526846525346</v>
       </c>
       <c r="F11">
-        <v>28.08908879169945</v>
+        <v>26.71042347884874</v>
       </c>
       <c r="G11">
-        <v>36.85862294057512</v>
+        <v>36.4474136619932</v>
       </c>
       <c r="H11">
-        <v>3.12512941420516</v>
+        <v>3.050762074004252</v>
       </c>
       <c r="I11">
-        <v>3.680675296140839</v>
+        <v>3.479902963430623</v>
       </c>
       <c r="J11">
-        <v>11.70817223564121</v>
+        <v>10.79514690808953</v>
       </c>
       <c r="K11">
-        <v>17.91428010174974</v>
+        <v>16.56392511077143</v>
       </c>
       <c r="L11">
-        <v>6.745108299402391</v>
+        <v>12.5571257422564</v>
       </c>
       <c r="M11">
-        <v>17.69375397606553</v>
+        <v>11.92281485203707</v>
       </c>
       <c r="N11">
-        <v>8.67103330053293</v>
+        <v>6.594050240785104</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>17.63312722746686</v>
       </c>
       <c r="P11">
-        <v>13.13103445396475</v>
+        <v>9.117067395224005</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.88753631569105</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.31776996384119</v>
+        <v>13.43083028381682</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.505998322284417</v>
+        <v>4.467833189197807</v>
       </c>
       <c r="E12">
-        <v>8.389845921385991</v>
+        <v>8.109516019039575</v>
       </c>
       <c r="F12">
-        <v>27.07141727292749</v>
+        <v>25.67008451779814</v>
       </c>
       <c r="G12">
-        <v>35.46189948150787</v>
+        <v>35.52502818676399</v>
       </c>
       <c r="H12">
-        <v>4.401305616767772</v>
+        <v>4.349704895861566</v>
       </c>
       <c r="I12">
-        <v>3.68025871095785</v>
+        <v>3.481168756293524</v>
       </c>
       <c r="J12">
-        <v>11.4094786830722</v>
+        <v>10.31940669939857</v>
       </c>
       <c r="K12">
-        <v>17.38563644391074</v>
+        <v>16.11037336627763</v>
       </c>
       <c r="L12">
-        <v>6.855852778470297</v>
+        <v>12.21683782184183</v>
       </c>
       <c r="M12">
-        <v>17.78339757921987</v>
+        <v>11.58508350628284</v>
       </c>
       <c r="N12">
-        <v>8.129294251797592</v>
+        <v>6.725335381831241</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>17.66286931185468</v>
       </c>
       <c r="P12">
-        <v>13.03713905190329</v>
+        <v>8.528293852102999</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.83303212907372</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.88577426549006</v>
+        <v>13.07543420572672</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.384663116547745</v>
+        <v>4.334912721348128</v>
       </c>
       <c r="E13">
-        <v>8.5125055224497</v>
+        <v>8.258357714274874</v>
       </c>
       <c r="F13">
-        <v>25.94259282256006</v>
+        <v>24.66555055143861</v>
       </c>
       <c r="G13">
-        <v>33.8335322877653</v>
+        <v>33.92549919393326</v>
       </c>
       <c r="H13">
-        <v>5.775050238482585</v>
+        <v>5.73265605675513</v>
       </c>
       <c r="I13">
-        <v>3.718524468330501</v>
+        <v>3.512927583286012</v>
       </c>
       <c r="J13">
-        <v>11.09953668943999</v>
+        <v>10.13178562450003</v>
       </c>
       <c r="K13">
-        <v>16.92359017749991</v>
+        <v>15.765802590138</v>
       </c>
       <c r="L13">
-        <v>6.980637850852156</v>
+        <v>11.98059418554372</v>
       </c>
       <c r="M13">
-        <v>17.61371496124048</v>
+        <v>11.29371107231374</v>
       </c>
       <c r="N13">
-        <v>7.522854828514689</v>
+        <v>6.867826896021932</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>17.48868760114556</v>
       </c>
       <c r="P13">
-        <v>13.01877210870265</v>
+        <v>7.895440130922513</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.84632068148083</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.49146878244392</v>
+        <v>12.74031982211907</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.295562069778827</v>
+        <v>4.230900077145445</v>
       </c>
       <c r="E14">
-        <v>8.634562585038815</v>
+        <v>8.403107583779223</v>
       </c>
       <c r="F14">
-        <v>25.09193175721712</v>
+        <v>23.96485593950081</v>
       </c>
       <c r="G14">
-        <v>32.56642442577672</v>
+        <v>32.48649959644401</v>
       </c>
       <c r="H14">
-        <v>6.763912263966587</v>
+        <v>6.724314843524634</v>
       </c>
       <c r="I14">
-        <v>3.765219648434134</v>
+        <v>3.551950492517891</v>
       </c>
       <c r="J14">
-        <v>10.87576379672732</v>
+        <v>10.11326216168863</v>
       </c>
       <c r="K14">
-        <v>16.63171105133032</v>
+        <v>15.57008845026565</v>
       </c>
       <c r="L14">
-        <v>7.080180586614586</v>
+        <v>11.85397483094315</v>
       </c>
       <c r="M14">
-        <v>17.37672064152546</v>
+        <v>11.11267006557309</v>
       </c>
       <c r="N14">
-        <v>7.067204933126381</v>
+        <v>6.97888504021751</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>17.27264466508159</v>
       </c>
       <c r="P14">
-        <v>13.04137880076638</v>
+        <v>7.429995361018567</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.88431660563605</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.34816074331672</v>
+        <v>12.61395831033296</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.269715276459056</v>
+        <v>4.199103668733721</v>
       </c>
       <c r="E15">
-        <v>8.66034641697718</v>
+        <v>8.437740128267155</v>
       </c>
       <c r="F15">
-        <v>24.85431459494267</v>
+        <v>23.79066817136771</v>
       </c>
       <c r="G15">
-        <v>32.19575078194442</v>
+        <v>31.99360016180862</v>
       </c>
       <c r="H15">
-        <v>6.996786735522561</v>
+        <v>6.956887302809101</v>
       </c>
       <c r="I15">
-        <v>3.789058130213453</v>
+        <v>3.57286979020445</v>
       </c>
       <c r="J15">
-        <v>10.817161644176</v>
+        <v>10.15542253783387</v>
       </c>
       <c r="K15">
-        <v>16.56738380944905</v>
+        <v>15.5359765332223</v>
       </c>
       <c r="L15">
-        <v>7.100328800359435</v>
+        <v>11.83462311893987</v>
       </c>
       <c r="M15">
-        <v>17.26433638918244</v>
+        <v>11.07430297229834</v>
       </c>
       <c r="N15">
-        <v>6.946537630125034</v>
+        <v>7.002298898730247</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>17.175741919465</v>
       </c>
       <c r="P15">
-        <v>13.05983407808508</v>
+        <v>7.310289575677468</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.90424541644926</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.99017357753927</v>
+        <v>12.27438644197865</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.226013431623842</v>
+        <v>4.135491208560814</v>
       </c>
       <c r="E16">
-        <v>8.527766875461529</v>
+        <v>8.330662863938867</v>
       </c>
       <c r="F16">
-        <v>24.68292608860748</v>
+        <v>23.83906535330735</v>
       </c>
       <c r="G16">
-        <v>31.80200774999121</v>
+        <v>30.94351692808996</v>
       </c>
       <c r="H16">
-        <v>6.820475876149576</v>
+        <v>6.771357186636702</v>
       </c>
       <c r="I16">
-        <v>3.880398662638249</v>
+        <v>3.648668869581144</v>
       </c>
       <c r="J16">
-        <v>10.81196948150715</v>
+        <v>10.57777362864539</v>
       </c>
       <c r="K16">
-        <v>16.67525207875036</v>
+        <v>15.69808229144097</v>
       </c>
       <c r="L16">
-        <v>7.010840181642817</v>
+        <v>11.97142078746123</v>
       </c>
       <c r="M16">
-        <v>16.72747492632852</v>
+        <v>11.15547316068779</v>
       </c>
       <c r="N16">
-        <v>6.843888446980671</v>
+        <v>6.917031125014674</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>16.72572009041332</v>
       </c>
       <c r="P16">
-        <v>13.17126132342483</v>
+        <v>7.236268970768711</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.99776732978405</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.92943922172519</v>
+        <v>12.19591552641757</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.239397784916972</v>
+        <v>4.141269910330253</v>
       </c>
       <c r="E17">
-        <v>8.34933983750088</v>
+        <v>8.149947547224718</v>
       </c>
       <c r="F17">
-        <v>25.011786515061</v>
+        <v>24.23256901158777</v>
       </c>
       <c r="G17">
-        <v>32.19351042208169</v>
+        <v>31.02127945611338</v>
       </c>
       <c r="H17">
-        <v>6.134362624408142</v>
+        <v>6.074907825376301</v>
       </c>
       <c r="I17">
-        <v>3.926327242318245</v>
+        <v>3.687277390766455</v>
       </c>
       <c r="J17">
-        <v>10.92804079173636</v>
+        <v>10.8662767233256</v>
       </c>
       <c r="K17">
-        <v>16.90833486183708</v>
+        <v>15.9214354326942</v>
       </c>
       <c r="L17">
-        <v>6.883895414130124</v>
+        <v>12.15039517619792</v>
       </c>
       <c r="M17">
-        <v>16.4393970239804</v>
+        <v>11.30326970573545</v>
       </c>
       <c r="N17">
-        <v>7.015470102270887</v>
+        <v>6.784891738261886</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>16.48097491634134</v>
       </c>
       <c r="P17">
-        <v>13.24462978442223</v>
+        <v>7.430269075996673</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.05411060150468</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.14136693361023</v>
+        <v>12.35548625649531</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.310463241420509</v>
+        <v>4.20756357490381</v>
       </c>
       <c r="E18">
-        <v>8.164617953308218</v>
+        <v>7.938933179012874</v>
       </c>
       <c r="F18">
-        <v>25.82386585627867</v>
+        <v>25.02093522783166</v>
       </c>
       <c r="G18">
-        <v>33.32771085190161</v>
+        <v>31.95252813270458</v>
       </c>
       <c r="H18">
-        <v>4.973331301157043</v>
+        <v>4.898400826942826</v>
       </c>
       <c r="I18">
-        <v>3.927736496477994</v>
+        <v>3.685629448206142</v>
       </c>
       <c r="J18">
-        <v>11.16573876138541</v>
+        <v>11.15890476394514</v>
       </c>
       <c r="K18">
-        <v>17.30309032538236</v>
+        <v>16.25677704611319</v>
       </c>
       <c r="L18">
-        <v>6.735168054904348</v>
+        <v>12.4152989950523</v>
       </c>
       <c r="M18">
-        <v>16.33657936807067</v>
+        <v>11.54408187226288</v>
       </c>
       <c r="N18">
-        <v>7.434243002859252</v>
+        <v>6.621698300553204</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>16.40585113773341</v>
       </c>
       <c r="P18">
-        <v>13.30449659814609</v>
+        <v>7.876807043039852</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.09230339530754</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.50871494077515</v>
+        <v>12.64867992383</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.430274172089927</v>
+        <v>4.323516225086648</v>
       </c>
       <c r="E19">
-        <v>8.078818042187343</v>
+        <v>7.808133915129748</v>
       </c>
       <c r="F19">
-        <v>26.91530411504853</v>
+        <v>26.03693104070565</v>
       </c>
       <c r="G19">
-        <v>34.88731443623816</v>
+        <v>33.35664645699296</v>
       </c>
       <c r="H19">
-        <v>3.652309369225748</v>
+        <v>3.553505657273649</v>
       </c>
       <c r="I19">
-        <v>3.907315240861237</v>
+        <v>3.66918946159038</v>
       </c>
       <c r="J19">
-        <v>11.46950860777638</v>
+        <v>11.45560622870583</v>
       </c>
       <c r="K19">
-        <v>17.78628143298759</v>
+        <v>16.64841565238115</v>
       </c>
       <c r="L19">
-        <v>6.624497829919364</v>
+        <v>12.72234388127436</v>
       </c>
       <c r="M19">
-        <v>16.40099701055547</v>
+        <v>11.83395514391087</v>
       </c>
       <c r="N19">
-        <v>8.03686218726088</v>
+        <v>6.488076250790666</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>16.49004721683117</v>
       </c>
       <c r="P19">
-        <v>13.36072772337363</v>
+        <v>8.511800034533454</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.12226052460817</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.35651772915724</v>
+        <v>13.36355068013309</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.677585258751773</v>
+        <v>4.57436531139088</v>
       </c>
       <c r="E20">
-        <v>8.252397382551658</v>
+        <v>7.899498287244085</v>
       </c>
       <c r="F20">
-        <v>28.80976920071144</v>
+        <v>27.71432486675872</v>
       </c>
       <c r="G20">
-        <v>37.66736329821438</v>
+        <v>36.09527052119878</v>
       </c>
       <c r="H20">
-        <v>2.389354339617938</v>
+        <v>2.26467118502958</v>
       </c>
       <c r="I20">
-        <v>3.797421281011099</v>
+        <v>3.576502141321412</v>
       </c>
       <c r="J20">
-        <v>11.97087958289284</v>
+        <v>11.77558124754853</v>
       </c>
       <c r="K20">
-        <v>18.55299078717831</v>
+        <v>17.22386201172317</v>
       </c>
       <c r="L20">
-        <v>6.612723637381904</v>
+        <v>13.13932136908736</v>
       </c>
       <c r="M20">
-        <v>16.90986990779595</v>
+        <v>12.30665803313363</v>
       </c>
       <c r="N20">
-        <v>9.071311957229204</v>
+        <v>6.432617150202267</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.99968275684483</v>
       </c>
       <c r="P20">
-        <v>13.40016338860958</v>
+        <v>9.592852109003537</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.11561040201911</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.17088590166613</v>
+        <v>14.11047898437023</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.823659029972058</v>
+        <v>4.799851550996653</v>
       </c>
       <c r="E21">
-        <v>8.472161686011951</v>
+        <v>8.110151834931591</v>
       </c>
       <c r="F21">
-        <v>29.70671874853414</v>
+        <v>28.09245763728363</v>
       </c>
       <c r="G21">
-        <v>39.16349159718246</v>
+        <v>38.91626815278246</v>
       </c>
       <c r="H21">
-        <v>2.095647313880253</v>
+        <v>2.002839827845469</v>
       </c>
       <c r="I21">
-        <v>3.619860219447245</v>
+        <v>3.4321396640191</v>
       </c>
       <c r="J21">
-        <v>12.15561564090897</v>
+        <v>10.93752190533429</v>
       </c>
       <c r="K21">
-        <v>18.64890280367902</v>
+        <v>17.10287717618985</v>
       </c>
       <c r="L21">
-        <v>6.724011745245247</v>
+        <v>12.94304566580617</v>
       </c>
       <c r="M21">
-        <v>17.94117392437305</v>
+        <v>12.36253652877517</v>
       </c>
       <c r="N21">
-        <v>9.550078052342576</v>
+        <v>6.532034130131027</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.85969722988921</v>
       </c>
       <c r="P21">
-        <v>13.21344489859962</v>
+        <v>10.02479109476704</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.91134091205712</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.67869286248292</v>
+        <v>14.57965475316731</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.908514225586997</v>
+        <v>4.944736105020683</v>
       </c>
       <c r="E22">
-        <v>8.605683653988514</v>
+        <v>8.245088571188012</v>
       </c>
       <c r="F22">
-        <v>30.24292169297369</v>
+        <v>28.27229644256671</v>
       </c>
       <c r="G22">
-        <v>40.06945240384329</v>
+        <v>40.7797000517773</v>
       </c>
       <c r="H22">
-        <v>1.919568259641871</v>
+        <v>1.847311230918393</v>
       </c>
       <c r="I22">
-        <v>3.498903926706901</v>
+        <v>3.330335956890742</v>
       </c>
       <c r="J22">
-        <v>12.26732986902354</v>
+        <v>10.35588928907385</v>
       </c>
       <c r="K22">
-        <v>18.70270493252243</v>
+        <v>17.00944021817746</v>
       </c>
       <c r="L22">
-        <v>6.795547044978798</v>
+        <v>12.8063542061331</v>
       </c>
       <c r="M22">
-        <v>18.57400310427661</v>
+        <v>12.39540612216969</v>
       </c>
       <c r="N22">
-        <v>9.800734323662185</v>
+        <v>6.598025461803224</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>18.37471304844198</v>
       </c>
       <c r="P22">
-        <v>13.0900706214116</v>
+        <v>10.23952979914595</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.77804221063688</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.43494680066395</v>
+        <v>14.35408848637456</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.864369153696405</v>
+        <v>4.857846236249891</v>
       </c>
       <c r="E23">
-        <v>8.537765542835386</v>
+        <v>8.173755486370533</v>
       </c>
       <c r="F23">
-        <v>29.98479086775131</v>
+        <v>28.24876097488355</v>
       </c>
       <c r="G23">
-        <v>39.62992118929405</v>
+        <v>39.66067286921691</v>
       </c>
       <c r="H23">
-        <v>2.012237018569477</v>
+        <v>1.92786072964816</v>
       </c>
       <c r="I23">
-        <v>3.552909271067509</v>
+        <v>3.371419603945754</v>
       </c>
       <c r="J23">
-        <v>12.21626557996822</v>
+        <v>10.77651036990389</v>
       </c>
       <c r="K23">
-        <v>18.69923608206269</v>
+        <v>17.09555148923236</v>
       </c>
       <c r="L23">
-        <v>6.758252461362818</v>
+        <v>12.90468238174664</v>
       </c>
       <c r="M23">
-        <v>18.23369857839051</v>
+        <v>12.40662653411597</v>
       </c>
       <c r="N23">
-        <v>9.655388779165579</v>
+        <v>6.56396074064893</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>18.11731285395444</v>
       </c>
       <c r="P23">
-        <v>13.15955417778966</v>
+        <v>10.12286647461522</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.85287154236842</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.42927633094369</v>
+        <v>13.42745319927674</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.693389737334835</v>
+        <v>4.589213354210711</v>
       </c>
       <c r="E24">
-        <v>8.272427846182683</v>
+        <v>7.91242619228065</v>
       </c>
       <c r="F24">
-        <v>28.96499269131216</v>
+        <v>27.86222406311278</v>
       </c>
       <c r="G24">
-        <v>37.89108913907558</v>
+        <v>36.29129335941441</v>
       </c>
       <c r="H24">
-        <v>2.37173537767627</v>
+        <v>2.24697128886404</v>
       </c>
       <c r="I24">
-        <v>3.779582126928413</v>
+        <v>3.555798034948543</v>
       </c>
       <c r="J24">
-        <v>12.01661977459756</v>
+        <v>11.82569829778036</v>
       </c>
       <c r="K24">
-        <v>18.65054783349812</v>
+        <v>17.30733088689423</v>
       </c>
       <c r="L24">
-        <v>6.61378725876713</v>
+        <v>13.20483403653699</v>
       </c>
       <c r="M24">
-        <v>16.89888608443383</v>
+        <v>12.36811561910043</v>
       </c>
       <c r="N24">
-        <v>9.111105212174083</v>
+        <v>6.429427710866882</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.99206583879986</v>
       </c>
       <c r="P24">
-        <v>13.41801838088431</v>
+        <v>9.63757869444354</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.12787446335714</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.2559952505351</v>
+        <v>12.35645102470002</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.504416075552605</v>
+        <v>4.405771380576097</v>
       </c>
       <c r="E25">
-        <v>7.978915186872827</v>
+        <v>7.639113900839091</v>
       </c>
       <c r="F25">
-        <v>27.87545078577649</v>
+        <v>26.94874269359106</v>
       </c>
       <c r="G25">
-        <v>36.01368689174923</v>
+        <v>34.49997780397314</v>
       </c>
       <c r="H25">
-        <v>2.775239315723473</v>
+        <v>2.621899091525283</v>
       </c>
       <c r="I25">
-        <v>4.036289588463906</v>
+        <v>3.775873144999804</v>
       </c>
       <c r="J25">
-        <v>11.81852994714441</v>
+        <v>11.71823630745831</v>
       </c>
       <c r="K25">
-        <v>18.61072272261307</v>
+        <v>17.38638055581828</v>
       </c>
       <c r="L25">
-        <v>6.453216914104925</v>
+        <v>13.42109485320582</v>
       </c>
       <c r="M25">
-        <v>15.3423422586601</v>
+        <v>12.24883867269767</v>
       </c>
       <c r="N25">
-        <v>8.497194192772673</v>
+        <v>6.269486691608411</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.43522675589161</v>
       </c>
       <c r="P25">
-        <v>13.70027921466543</v>
+        <v>8.988884719437868</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.40745365374825</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
